--- a/table3.xlsx
+++ b/table3.xlsx
@@ -83,88 +83,88 @@
     <t xml:space="preserve">panel_a</t>
   </si>
   <si>
-    <t xml:space="preserve">1935-01-01 to 2022-12-31</t>
+    <t xml:space="preserve">1935-2022</t>
   </si>
   <si>
-    <t xml:space="preserve">1935-01-01 to 1945-12-31</t>
+    <t xml:space="preserve">1935-1945</t>
   </si>
   <si>
-    <t xml:space="preserve">1946-01-01 to 1955-12-31</t>
+    <t xml:space="preserve">1946-1955</t>
   </si>
   <si>
-    <t xml:space="preserve">1956-01-01 to 1965-12-31</t>
+    <t xml:space="preserve">1956-1965</t>
   </si>
   <si>
-    <t xml:space="preserve">1966-01-01 to 1975-12-31</t>
+    <t xml:space="preserve">1966-1975</t>
   </si>
   <si>
-    <t xml:space="preserve">1976-01-01 to 1985-12-31</t>
+    <t xml:space="preserve">1976-1985</t>
   </si>
   <si>
-    <t xml:space="preserve">1986-01-01 to 1995-12-31</t>
+    <t xml:space="preserve">1986-1995</t>
   </si>
   <si>
-    <t xml:space="preserve">1996-01-01 to 2005-12-31</t>
+    <t xml:space="preserve">1996-2005</t>
   </si>
   <si>
-    <t xml:space="preserve">2006-01-01 to 2015-12-31</t>
+    <t xml:space="preserve">2006-2015</t>
   </si>
   <si>
-    <t xml:space="preserve">2016-01-01 to 2022-12-31</t>
+    <t xml:space="preserve">2016-2022</t>
   </si>
   <si>
-    <t xml:space="preserve">1935-01-01 to 1940-12-31</t>
+    <t xml:space="preserve">1935-1940</t>
   </si>
   <si>
-    <t xml:space="preserve">1941-01-01 to 1945-12-31</t>
+    <t xml:space="preserve">1941-1945</t>
   </si>
   <si>
-    <t xml:space="preserve">1946-01-01 to 1950-12-31</t>
+    <t xml:space="preserve">1946-1950</t>
   </si>
   <si>
-    <t xml:space="preserve">1951-01-01 to 1955-12-31</t>
+    <t xml:space="preserve">1951-1955</t>
   </si>
   <si>
-    <t xml:space="preserve">1956-01-01 to 1960-12-31</t>
+    <t xml:space="preserve">1956-1960</t>
   </si>
   <si>
-    <t xml:space="preserve">1961-01-01 to 1965-12-31</t>
+    <t xml:space="preserve">1961-1965</t>
   </si>
   <si>
-    <t xml:space="preserve">1966-01-01 to 1970-12-31</t>
+    <t xml:space="preserve">1966-1970</t>
   </si>
   <si>
-    <t xml:space="preserve">1971-01-01 to 1975-12-31</t>
+    <t xml:space="preserve">1971-1975</t>
   </si>
   <si>
-    <t xml:space="preserve">1976-01-01 to 1980-12-31</t>
+    <t xml:space="preserve">1976-1980</t>
   </si>
   <si>
-    <t xml:space="preserve">1981-01-01 to 1985-12-31</t>
+    <t xml:space="preserve">1981-1985</t>
   </si>
   <si>
-    <t xml:space="preserve">1986-01-01 to 1990-12-31</t>
+    <t xml:space="preserve">1986-1990</t>
   </si>
   <si>
-    <t xml:space="preserve">1991-01-01 to 1995-12-31</t>
+    <t xml:space="preserve">1991-1995</t>
   </si>
   <si>
-    <t xml:space="preserve">1996-01-01 to 2000-12-31</t>
+    <t xml:space="preserve">1996-2000</t>
   </si>
   <si>
-    <t xml:space="preserve">2001-01-01 to 2005-12-31</t>
+    <t xml:space="preserve">2001-2005</t>
   </si>
   <si>
-    <t xml:space="preserve">2006-01-01 to 2010-12-31</t>
+    <t xml:space="preserve">2006-2010</t>
   </si>
   <si>
-    <t xml:space="preserve">2011-01-01 to 2015-12-31</t>
+    <t xml:space="preserve">2011-2015</t>
   </si>
   <si>
-    <t xml:space="preserve">2016-01-01 to 2020-12-31</t>
+    <t xml:space="preserve">2016-2020</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-01-01 to 2022-12-31</t>
+    <t xml:space="preserve">2021-2022</t>
   </si>
   <si>
     <t xml:space="preserve">panel_b</t>
@@ -581,48 +581,48 @@
         <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00494323173305047</v>
+        <v>0.005</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00760660758961107</v>
+        <v>0.008</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>-0.270255631903313</v>
+        <v>-0.27</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0125521974982263</v>
+        <v>0.013</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01230511830266</v>
+        <v>0.012</v>
       </c>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2" t="n">
-        <v>0.934857474907776</v>
+        <v>0.935</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0584896595320377</v>
+        <v>0.058</v>
       </c>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2" t="n">
-        <v>2.75235921457805</v>
+        <v>2.752</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.43099572605449</v>
+        <v>2.431</v>
       </c>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2" t="n">
-        <v>-33.5283082232572</v>
+        <v>-33.528</v>
       </c>
       <c r="U2" t="n">
-        <v>0.489563324280004</v>
+        <v>0.49</v>
       </c>
       <c r="V2" t="n">
-        <v>0.317342087299452</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="3">
@@ -633,48 +633,48 @@
         <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0042176517967461</v>
+        <v>-0.004</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0231863204171875</v>
+        <v>0.023</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>-0.0185358336149279</v>
+        <v>-0.019</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0219547299037708</v>
+        <v>0.022</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0204706435378243</v>
+        <v>0.02</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>-0.0523402856227891</v>
+        <v>-0.052</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0788277852576836</v>
+        <v>-0.079</v>
       </c>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3" t="n">
-        <v>-0.497594714767263</v>
+        <v>-0.498</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.66359048386966</v>
+        <v>1.664</v>
       </c>
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3" t="n">
-        <v>-2.16347839192005</v>
+        <v>-2.163</v>
       </c>
       <c r="U3" t="n">
-        <v>0.441955349030983</v>
+        <v>0.442</v>
       </c>
       <c r="V3" t="n">
-        <v>0.296918589251414</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="4">
@@ -685,48 +685,48 @@
         <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00925502280882393</v>
+        <v>0.009</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00204641381056375</v>
+        <v>0.002</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>-0.0852449771911761</v>
+        <v>-0.085</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00921077401381653</v>
+        <v>0.009</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00879662210414079</v>
+        <v>0.009</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4" t="n">
-        <v>0.531833046231579</v>
+        <v>0.532</v>
       </c>
       <c r="M4" t="n">
-        <v>0.000609508457083087</v>
+        <v>0.001</v>
       </c>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4" t="n">
-        <v>3.07337750834553</v>
+        <v>3.073</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.357246957091226</v>
+        <v>0.357</v>
       </c>
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4" t="n">
-        <v>-17.7560140224648</v>
+        <v>-17.756</v>
       </c>
       <c r="U4" t="n">
-        <v>0.474331275687873</v>
+        <v>0.474</v>
       </c>
       <c r="V4" t="n">
-        <v>0.333488017470289</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="5">
@@ -737,48 +737,48 @@
         <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00494017354852007</v>
+        <v>0.005</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0065321666230439</v>
+        <v>0.007</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>-0.226976493118147</v>
+        <v>-0.227</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0109238409724884</v>
+        <v>0.011</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0105835057844636</v>
+        <v>0.011</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5" t="n">
-        <v>0.607078711418614</v>
+        <v>0.607</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0463676748430232</v>
+        <v>0.046</v>
       </c>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5" t="n">
-        <v>1.36181705701005</v>
+        <v>1.362</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.02128451758017</v>
+        <v>1.021</v>
       </c>
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5" t="n">
-        <v>-29.3946647403016</v>
+        <v>-29.395</v>
       </c>
       <c r="U5" t="n">
-        <v>0.459900693014577</v>
+        <v>0.46</v>
       </c>
       <c r="V5" t="n">
-        <v>0.315085497772052</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="6">
@@ -789,48 +789,48 @@
         <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000837438627800473</v>
+        <v>0.001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0055294033146334</v>
+        <v>0.006</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>-0.4554125613722</v>
+        <v>-0.455</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0123954992927038</v>
+        <v>0.012</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0131321047590455</v>
+        <v>0.013</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="n">
-        <v>0.646300677698007</v>
+        <v>0.646</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0274505636766493</v>
+        <v>0.027</v>
       </c>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6" t="n">
-        <v>0.148142265168947</v>
+        <v>0.148</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.532337473591919</v>
+        <v>0.532</v>
       </c>
       <c r="R6"/>
       <c r="S6"/>
       <c r="T6" t="n">
-        <v>-37.8012424351229</v>
+        <v>-37.801</v>
       </c>
       <c r="U6" t="n">
-        <v>0.52432283750766</v>
+        <v>0.524</v>
       </c>
       <c r="V6" t="n">
-        <v>0.303354233696761</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="7">
@@ -841,48 +841,48 @@
         <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00655172333630227</v>
+        <v>0.007</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0129660709580516</v>
+        <v>0.013</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>-0.716781609997031</v>
+        <v>-0.717</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0116258228661108</v>
+        <v>0.012</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0118051534132991</v>
+        <v>0.012</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7" t="n">
-        <v>0.888845258778719</v>
+        <v>0.889</v>
       </c>
       <c r="M7" t="n">
-        <v>0.142464781103435</v>
+        <v>0.142</v>
       </c>
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7" t="n">
-        <v>1.3592708146571</v>
+        <v>1.359</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.49102804886522</v>
+        <v>1.491</v>
       </c>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7" t="n">
-        <v>-32.749384623542</v>
+        <v>-32.749</v>
       </c>
       <c r="U7" t="n">
-        <v>0.503276196952073</v>
+        <v>0.503</v>
       </c>
       <c r="V7" t="n">
-        <v>0.330382266710672</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="8">
@@ -893,48 +893,48 @@
         <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00564649301598099</v>
+        <v>0.006</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00690568418129436</v>
+        <v>0.007</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>-0.446103506984019</v>
+        <v>-0.446</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0138633952450886</v>
+        <v>0.014</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0137181603480192</v>
+        <v>0.014</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8" t="n">
-        <v>0.846309254217361</v>
+        <v>0.846</v>
       </c>
       <c r="M8" t="n">
-        <v>0.279730373659683</v>
+        <v>0.28</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8" t="n">
-        <v>1.14546952350602</v>
+        <v>1.145</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8433759761617</v>
+        <v>0.843</v>
       </c>
       <c r="R8"/>
       <c r="S8"/>
       <c r="T8" t="n">
-        <v>-33.0915454730215</v>
+        <v>-33.092</v>
       </c>
       <c r="U8" t="n">
-        <v>0.407819615814013</v>
+        <v>0.408</v>
       </c>
       <c r="V8" t="n">
-        <v>0.311046663522703</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="9">
@@ -945,48 +945,48 @@
         <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00873135718453213</v>
+        <v>0.009</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00447438951535537</v>
+        <v>0.004</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>-0.289601976148801</v>
+        <v>-0.29</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0126842865006171</v>
+        <v>0.013</v>
       </c>
       <c r="I9" t="n">
-        <v>0.012812510078349</v>
+        <v>0.013</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="n">
-        <v>0.80254850014684</v>
+        <v>0.803</v>
       </c>
       <c r="M9" t="n">
-        <v>0.11106421085841</v>
+        <v>0.111</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9" t="n">
-        <v>1.56169242802498</v>
+        <v>1.562</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.499738631510982</v>
+        <v>0.5</v>
       </c>
       <c r="R9"/>
       <c r="S9"/>
       <c r="T9" t="n">
-        <v>-20.077652039392</v>
+        <v>-20.078</v>
       </c>
       <c r="U9" t="n">
-        <v>0.544061690406969</v>
+        <v>0.544</v>
       </c>
       <c r="V9" t="n">
-        <v>0.278326388975741</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="10">
@@ -997,48 +997,48 @@
         <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00934931407701512</v>
+        <v>0.009</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.00120535195183584</v>
+        <v>-0.001</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>-0.0836506859229849</v>
+        <v>-0.084</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0102509111098904</v>
+        <v>0.01</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00983474244292063</v>
+        <v>0.01</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" t="n">
-        <v>0.914848162296804</v>
+        <v>0.915</v>
       </c>
       <c r="M10" t="n">
-        <v>0.237971971684153</v>
+        <v>0.238</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10" t="n">
-        <v>2.0785470221761</v>
+        <v>2.079</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.134821628572457</v>
+        <v>-0.135</v>
       </c>
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10" t="n">
-        <v>-5.68333650313521</v>
+        <v>-5.683</v>
       </c>
       <c r="U10" t="n">
-        <v>0.532917806227687</v>
+        <v>0.533</v>
       </c>
       <c r="V10" t="n">
-        <v>0.339441292937051</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="11">
@@ -1049,48 +1049,48 @@
         <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00404047661184266</v>
+        <v>0.004</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0059777398265209</v>
+        <v>0.006</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>-0.0772690471976812</v>
+        <v>-0.077</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0076494358421823</v>
+        <v>0.008</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00726362034509117</v>
+        <v>0.007</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" t="n">
-        <v>0.709125053218774</v>
+        <v>0.709</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0968454669371668</v>
+        <v>-0.097</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11" t="n">
-        <v>0.890127105891911</v>
+        <v>0.89</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.654783708256515</v>
+        <v>0.655</v>
       </c>
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11" t="n">
-        <v>-8.60573998341546</v>
+        <v>-8.606</v>
       </c>
       <c r="U11" t="n">
-        <v>0.536251791598715</v>
+        <v>0.536</v>
       </c>
       <c r="V11" t="n">
-        <v>0.331065792552605</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="12">
@@ -1101,48 +1101,48 @@
         <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.00398650734168636</v>
+        <v>-0.004</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0158696631173649</v>
+        <v>0.016</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>-0.0117642851194641</v>
+        <v>-0.012</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0267052148823944</v>
+        <v>0.027</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0251956823257751</v>
+        <v>0.025</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>-0.0965058380598483</v>
+        <v>-0.097</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.119348487673923</v>
+        <v>-0.119</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12" t="n">
-        <v>-0.283371230088066</v>
+        <v>-0.283</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.689104608006409</v>
+        <v>0.689</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12" t="n">
-        <v>-0.827770394137163</v>
+        <v>-0.828</v>
       </c>
       <c r="U12" t="n">
-        <v>0.422640278597288</v>
+        <v>0.423</v>
       </c>
       <c r="V12" t="n">
-        <v>0.301201153307444</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="13">
@@ -1153,48 +1153,48 @@
         <v>34</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.00449502514281778</v>
+        <v>-0.004</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0319663091769747</v>
+        <v>0.032</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>-0.0266616918094844</v>
+        <v>-0.027</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0162541479294225</v>
+        <v>0.016</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0148005969922834</v>
+        <v>0.015</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="n">
-        <v>0.127184800592626</v>
+        <v>0.127</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0861460072062545</v>
+        <v>0.086</v>
       </c>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13" t="n">
-        <v>-0.556950541003901</v>
+        <v>-0.557</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.37852186187966</v>
+        <v>2.379</v>
       </c>
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13" t="n">
-        <v>-3.31123670694321</v>
+        <v>-3.311</v>
       </c>
       <c r="U13" t="n">
-        <v>0.465133433551418</v>
+        <v>0.465</v>
       </c>
       <c r="V13" t="n">
-        <v>0.292524917336488</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="14">
@@ -1205,48 +1205,48 @@
         <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00873781225401459</v>
+        <v>0.009</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.000786393834731465</v>
+        <v>-0.001</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>-0.0577621877459854</v>
+        <v>-0.058</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00856400033618865</v>
+        <v>0.009</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00808864693321879</v>
+        <v>0.008</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>0.537403113027081</v>
+        <v>0.537</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.0288152616354985</v>
+        <v>-0.029</v>
       </c>
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14" t="n">
-        <v>2.30190939572239</v>
+        <v>2.302</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.102008077029556</v>
+        <v>-0.102</v>
       </c>
       <c r="R14"/>
       <c r="S14"/>
       <c r="T14" t="n">
-        <v>-10.1628832861721</v>
+        <v>-10.163</v>
       </c>
       <c r="U14" t="n">
-        <v>0.515882110036078</v>
+        <v>0.516</v>
       </c>
       <c r="V14" t="n">
-        <v>0.336788726045514</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="15">
@@ -1257,48 +1257,48 @@
         <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00977223336363328</v>
+        <v>0.01</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00487922145585897</v>
+        <v>0.005</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>-0.112727766636367</v>
+        <v>-0.113</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00985754769144441</v>
+        <v>0.01</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00950459727506279</v>
+        <v>0.01</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15" t="n">
-        <v>0.151941833630137</v>
+        <v>0.152</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0459051319236111</v>
+        <v>-0.046</v>
       </c>
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15" t="n">
-        <v>2.07579658704648</v>
+        <v>2.076</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.572393455662776</v>
+        <v>0.572</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
       <c r="T15" t="n">
-        <v>-19.035754810919</v>
+        <v>-19.036</v>
       </c>
       <c r="U15" t="n">
-        <v>0.432780441339668</v>
+        <v>0.433</v>
       </c>
       <c r="V15" t="n">
-        <v>0.327681840940866</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="16">
@@ -1309,48 +1309,48 @@
         <v>37</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0129442953101165</v>
+        <v>0.013</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.00399054348151866</v>
+        <v>-0.004</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>-0.197889038023217</v>
+        <v>-0.198</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0110380868840142</v>
+        <v>0.011</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0105227147315419</v>
+        <v>0.011</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16" t="n">
-        <v>0.432842249734101</v>
+        <v>0.433</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0105824307521963</v>
+        <v>0.011</v>
       </c>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16" t="n">
-        <v>2.86564616474218</v>
+        <v>2.866</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.500717081706216</v>
+        <v>-0.501</v>
       </c>
       <c r="R16"/>
       <c r="S16"/>
       <c r="T16" t="n">
-        <v>-19.3015301929856</v>
+        <v>-19.302</v>
       </c>
       <c r="U16" t="n">
-        <v>0.410116855939028</v>
+        <v>0.41</v>
       </c>
       <c r="V16" t="n">
-        <v>0.297904544172552</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="17">
@@ -1361,48 +1361,48 @@
         <v>38</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0030639482130764</v>
+        <v>-0.003</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0170548767276065</v>
+        <v>0.017</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>-0.256063948213076</v>
+        <v>-0.256</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0108095950609627</v>
+        <v>0.011</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0106442968373852</v>
+        <v>0.011</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" t="n">
-        <v>0.682283828007762</v>
+        <v>0.682</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0304228473997883</v>
+        <v>0.03</v>
       </c>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17" t="n">
-        <v>-0.554707819429069</v>
+        <v>-0.555</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.72496330928834</v>
+        <v>1.725</v>
       </c>
       <c r="R17"/>
       <c r="S17"/>
       <c r="T17" t="n">
-        <v>-24.7865523477275</v>
+        <v>-24.787</v>
       </c>
       <c r="U17" t="n">
-        <v>0.509684530090126</v>
+        <v>0.51</v>
       </c>
       <c r="V17" t="n">
-        <v>0.326270503788161</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="18">
@@ -1413,48 +1413,48 @@
         <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.000248008073443725</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00714010201973936</v>
+        <v>0.007</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>-0.443248008073444</v>
+        <v>-0.443</v>
       </c>
       <c r="H18" t="n">
-        <v>0.011544325303429</v>
+        <v>0.012</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0119698623475194</v>
+        <v>0.012</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18" t="n">
-        <v>0.563121185922412</v>
+        <v>0.563</v>
       </c>
       <c r="M18" t="n">
-        <v>0.161063474121154</v>
+        <v>0.161</v>
       </c>
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18" t="n">
-        <v>-0.0340252382810983</v>
+        <v>-0.034</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.549769824995538</v>
+        <v>0.55</v>
       </c>
       <c r="R18"/>
       <c r="S18"/>
       <c r="T18" t="n">
-        <v>-39.7312774838003</v>
+        <v>-39.731</v>
       </c>
       <c r="U18" t="n">
-        <v>0.569401903322253</v>
+        <v>0.569</v>
       </c>
       <c r="V18" t="n">
-        <v>0.30723574773127</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="19">
@@ -1465,48 +1465,48 @@
         <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00192288532904467</v>
+        <v>0.002</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00391870460952742</v>
+        <v>0.004</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>-0.467577114670955</v>
+        <v>-0.468</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0132466732819786</v>
+        <v>0.013</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0142943471705716</v>
+        <v>0.014</v>
       </c>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19" t="n">
-        <v>0.665817832683792</v>
+        <v>0.666</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0706814743251702</v>
+        <v>-0.071</v>
       </c>
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19" t="n">
-        <v>0.220952276279784</v>
+        <v>0.221</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.240065043504028</v>
+        <v>0.24</v>
       </c>
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19" t="n">
-        <v>-21.8958556215376</v>
+        <v>-21.896</v>
       </c>
       <c r="U19" t="n">
-        <v>0.479243771693066</v>
+        <v>0.479</v>
       </c>
       <c r="V19" t="n">
-        <v>0.295093837525517</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="20">
@@ -1517,48 +1517,48 @@
         <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.00978471357426215</v>
+        <v>-0.01</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0323493423421379</v>
+        <v>0.032</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>-0.636284713574262</v>
+        <v>-0.636</v>
       </c>
       <c r="H20" t="n">
-        <v>0.011119570305788</v>
+        <v>0.011</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0113667351149614</v>
+        <v>0.011</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="n">
-        <v>0.919845219801347</v>
+        <v>0.92</v>
       </c>
       <c r="M20" t="n">
-        <v>0.114951548957138</v>
+        <v>0.115</v>
       </c>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20" t="n">
-        <v>-1.55082785434244</v>
+        <v>-1.551</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.62499970078004</v>
+        <v>2.625</v>
       </c>
       <c r="R20"/>
       <c r="S20"/>
       <c r="T20" t="n">
-        <v>-20.5216810364731</v>
+        <v>-20.522</v>
       </c>
       <c r="U20" t="n">
-        <v>0.464484140150544</v>
+        <v>0.464</v>
       </c>
       <c r="V20" t="n">
-        <v>0.351633457130782</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="21">
@@ -1569,48 +1569,48 @@
         <v>42</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0228881602468667</v>
+        <v>0.023</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.00641720042603473</v>
+        <v>-0.006</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>-0.7972785064198</v>
+        <v>-0.797</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0121320754264336</v>
+        <v>0.012</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0122435717116368</v>
+        <v>0.012</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21" t="n">
-        <v>0.825946574074545</v>
+        <v>0.826</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0814360251570436</v>
+        <v>0.081</v>
       </c>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21" t="n">
-        <v>3.41714848252989</v>
+        <v>3.417</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.541495917643527</v>
+        <v>-0.541</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
       <c r="T21" t="n">
-        <v>-29.085622816051</v>
+        <v>-29.086</v>
       </c>
       <c r="U21" t="n">
-        <v>0.542068253753602</v>
+        <v>0.542</v>
       </c>
       <c r="V21" t="n">
-        <v>0.305692949246178</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="22">
@@ -1621,48 +1621,48 @@
         <v>43</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0128704612445035</v>
+        <v>0.013</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.00530237978893098</v>
+        <v>-0.005</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>-0.539629538755496</v>
+        <v>-0.54</v>
       </c>
       <c r="H22" t="n">
-        <v>0.011570524507304</v>
+        <v>0.012</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0114062183815725</v>
+        <v>0.011</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22" t="n">
-        <v>0.677436026811844</v>
+        <v>0.677</v>
       </c>
       <c r="M22" t="n">
-        <v>0.211321179358934</v>
+        <v>0.211</v>
       </c>
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22" t="n">
-        <v>2.53155850931159</v>
+        <v>2.532</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.475134555133606</v>
+        <v>-0.475</v>
       </c>
       <c r="R22"/>
       <c r="S22"/>
       <c r="T22" t="n">
-        <v>-38.8749555676867</v>
+        <v>-38.875</v>
       </c>
       <c r="U22" t="n">
-        <v>0.439635500361113</v>
+        <v>0.44</v>
       </c>
       <c r="V22" t="n">
-        <v>0.326847526140099</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="23">
@@ -1673,48 +1673,48 @@
         <v>44</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.00157747521254153</v>
+        <v>-0.002</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0191137481515197</v>
+        <v>0.019</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>-0.352577475212542</v>
+        <v>-0.353</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0161562659828732</v>
+        <v>0.016</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0160301023144659</v>
+        <v>0.016</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23" t="n">
-        <v>0.785279710785001</v>
+        <v>0.785</v>
       </c>
       <c r="M23" t="n">
-        <v>0.332654313139402</v>
+        <v>0.333</v>
       </c>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23" t="n">
-        <v>-0.188002560019332</v>
+        <v>-0.188</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.61044716438436</v>
+        <v>1.61</v>
       </c>
       <c r="R23"/>
       <c r="S23"/>
       <c r="T23" t="n">
-        <v>-22.5761328838649</v>
+        <v>-22.576</v>
       </c>
       <c r="U23" t="n">
-        <v>0.376003731266912</v>
+        <v>0.376</v>
       </c>
       <c r="V23" t="n">
-        <v>0.293686507694685</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="24">
@@ -1725,48 +1725,48 @@
         <v>45</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0107199056040307</v>
+        <v>0.011</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00174239827525775</v>
+        <v>0.002</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>-0.410613427729303</v>
+        <v>-0.411</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0159219362373963</v>
+        <v>0.016</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0162022629096067</v>
+        <v>0.016</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24" t="n">
-        <v>0.0150351180262513</v>
+        <v>0.015</v>
       </c>
       <c r="M24" t="n">
-        <v>0.155907983490126</v>
+        <v>0.156</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24" t="n">
-        <v>1.17037236525639</v>
+        <v>1.17</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.125356261757976</v>
+        <v>0.125</v>
       </c>
       <c r="R24"/>
       <c r="S24"/>
       <c r="T24" t="n">
-        <v>-41.695930919033</v>
+        <v>-41.696</v>
       </c>
       <c r="U24" t="n">
-        <v>0.489105854914656</v>
+        <v>0.489</v>
       </c>
       <c r="V24" t="n">
-        <v>0.260691827042452</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="25">
@@ -1777,48 +1777,48 @@
         <v>46</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00674280876503357</v>
+        <v>0.007</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00720638075545299</v>
+        <v>0.007</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>-0.1685905245683</v>
+        <v>-0.169</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00944663676383785</v>
+        <v>0.009</v>
       </c>
       <c r="I25" t="n">
-        <v>0.00942275724709138</v>
+        <v>0.009</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25" t="n">
-        <v>0.713116107932458</v>
+        <v>0.713</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0158082858438587</v>
+        <v>0.016</v>
       </c>
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25" t="n">
-        <v>1.03961809102907</v>
+        <v>1.04</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.632226020430277</v>
+        <v>0.632</v>
       </c>
       <c r="R25"/>
       <c r="S25"/>
       <c r="T25" t="n">
-        <v>-10.7512876526883</v>
+        <v>-10.751</v>
       </c>
       <c r="U25" t="n">
-        <v>0.599017525899282</v>
+        <v>0.599</v>
       </c>
       <c r="V25" t="n">
-        <v>0.286602929780188</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="26">
@@ -1829,48 +1829,48 @@
         <v>47</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00529595710341848</v>
+        <v>0.005</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00382112764273743</v>
+        <v>0.004</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>-0.178870709563248</v>
+        <v>-0.179</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0131437500368849</v>
+        <v>0.013</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0127378844780183</v>
+        <v>0.013</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="n">
-        <v>0.905303694006944</v>
+        <v>0.905</v>
       </c>
       <c r="M26" t="n">
-        <v>0.329235649180592</v>
+        <v>0.329</v>
       </c>
       <c r="N26"/>
       <c r="O26"/>
       <c r="P26" t="n">
-        <v>0.685814152568716</v>
+        <v>0.686</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.243956055601774</v>
+        <v>0.244</v>
       </c>
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26" t="n">
-        <v>-7.66237444528775</v>
+        <v>-7.662</v>
       </c>
       <c r="U26" t="n">
-        <v>0.523454918214236</v>
+        <v>0.523</v>
       </c>
       <c r="V26" t="n">
-        <v>0.336127891647028</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="27">
@@ -1881,48 +1881,48 @@
         <v>48</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0134026710506118</v>
+        <v>0.013</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0062318315464091</v>
+        <v>-0.006</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>0.0115693377172784</v>
+        <v>0.012</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00735807218289583</v>
+        <v>0.007</v>
       </c>
       <c r="I27" t="n">
-        <v>0.00693160040782292</v>
+        <v>0.007</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27" t="n">
-        <v>-0.0587861929656294</v>
+        <v>-0.059</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.0664688954910906</v>
+        <v>-0.066</v>
       </c>
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27" t="n">
-        <v>2.89551309131106</v>
+        <v>2.896</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.713728438406984</v>
+        <v>-0.714</v>
       </c>
       <c r="R27"/>
       <c r="S27"/>
       <c r="T27" t="n">
-        <v>2.48954688701209</v>
+        <v>2.49</v>
       </c>
       <c r="U27" t="n">
-        <v>0.542380694241139</v>
+        <v>0.542</v>
       </c>
       <c r="V27" t="n">
-        <v>0.345296370068202</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="28">
@@ -1933,48 +1933,48 @@
         <v>49</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00693980384850374</v>
+        <v>0.007</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00348268456349802</v>
+        <v>0.003</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>-0.0828935294848296</v>
+        <v>-0.083</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00817579658875559</v>
+        <v>0.008</v>
       </c>
       <c r="I28" t="n">
-        <v>0.00780153629151835</v>
+        <v>0.008</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28" t="n">
-        <v>0.633688207517893</v>
+        <v>0.634</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.125612012880184</v>
+        <v>-0.126</v>
       </c>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28" t="n">
-        <v>1.28143282794518</v>
+        <v>1.281</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.287975879438566</v>
+        <v>0.288</v>
       </c>
       <c r="R28"/>
       <c r="S28"/>
       <c r="T28" t="n">
-        <v>-9.16441224284259</v>
+        <v>-9.164</v>
       </c>
       <c r="U28" t="n">
-        <v>0.542765172180139</v>
+        <v>0.543</v>
       </c>
       <c r="V28" t="n">
-        <v>0.32519501503079</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="29">
@@ -1985,48 +1985,48 @@
         <v>50</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.00320784147981004</v>
+        <v>-0.003</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0122153779840781</v>
+        <v>0.012</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>-0.06320784147981</v>
+        <v>-0.063</v>
       </c>
       <c r="H29" t="n">
-        <v>0.00633353397574908</v>
+        <v>0.006</v>
       </c>
       <c r="I29" t="n">
-        <v>0.00591883047902324</v>
+        <v>0.006</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29" t="n">
-        <v>0.808513878422205</v>
+        <v>0.809</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0330010361262094</v>
+        <v>0.033</v>
       </c>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29" t="n">
-        <v>-0.386305425443892</v>
+        <v>-0.386</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.15238896053049</v>
+        <v>1.152</v>
       </c>
       <c r="R29"/>
       <c r="S29"/>
       <c r="T29" t="n">
-        <v>-2.88044426131467</v>
+        <v>-2.88</v>
       </c>
       <c r="U29" t="n">
-        <v>0.519968340145153</v>
+        <v>0.52</v>
       </c>
       <c r="V29" t="n">
-        <v>0.351945725808181</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="30">
@@ -2037,56 +2037,56 @@
         <v>23</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0102837688526572</v>
+        <v>0.01</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0043466565899532</v>
+        <v>-0.004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.00609852448935964</v>
+        <v>0.006</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>-0.264915094783706</v>
+        <v>-0.265</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0342100522388391</v>
+        <v>0.034</v>
       </c>
       <c r="I30" t="n">
-        <v>0.071755345987339</v>
+        <v>0.072</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0357059102469758</v>
+        <v>0.036</v>
       </c>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>0.913229534029298</v>
+        <v>0.913</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0325117701343396</v>
+        <v>0.033</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0251667012081714</v>
+        <v>0.025</v>
       </c>
       <c r="O30"/>
       <c r="P30" t="n">
-        <v>4.3256545980179</v>
+        <v>4.326</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.742779672769509</v>
+        <v>-0.743</v>
       </c>
       <c r="R30" t="n">
-        <v>1.69404857018938</v>
+        <v>1.694</v>
       </c>
       <c r="S30"/>
       <c r="T30" t="n">
-        <v>-32.4620603004731</v>
+        <v>-32.462</v>
       </c>
       <c r="U30" t="n">
-        <v>0.559050050246773</v>
+        <v>0.559</v>
       </c>
       <c r="V30" t="n">
-        <v>0.301264424732038</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="31">
@@ -2097,56 +2097,56 @@
         <v>24</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0180190878539013</v>
+        <v>0.018</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0250833158211446</v>
+        <v>-0.025</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0233900525884786</v>
+        <v>0.023</v>
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>0.00370090603571945</v>
+        <v>0.004</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0588734090656655</v>
+        <v>0.059</v>
       </c>
       <c r="I31" t="n">
-        <v>0.123557948444226</v>
+        <v>0.124</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0608885149606926</v>
+        <v>0.061</v>
       </c>
       <c r="K31"/>
       <c r="L31" t="n">
-        <v>-0.0348715386283329</v>
+        <v>-0.035</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0505270390288286</v>
+        <v>-0.051</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.080767336832897</v>
+        <v>-0.081</v>
       </c>
       <c r="O31"/>
       <c r="P31" t="n">
-        <v>1.70339923353968</v>
+        <v>1.703</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.856573615810546</v>
+        <v>-0.857</v>
       </c>
       <c r="R31" t="n">
-        <v>1.20749232017344</v>
+        <v>1.207</v>
       </c>
       <c r="S31"/>
       <c r="T31" t="n">
-        <v>0.350992109483284</v>
+        <v>0.351</v>
       </c>
       <c r="U31" t="n">
-        <v>0.51313713521295</v>
+        <v>0.513</v>
       </c>
       <c r="V31" t="n">
-        <v>0.284168984514809</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="32">
@@ -2157,56 +2157,56 @@
         <v>25</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00100777361609166</v>
+        <v>0.001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0186415850213137</v>
+        <v>0.019</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.00777832444170081</v>
+        <v>-0.008</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>-0.0934922263839083</v>
+        <v>-0.093</v>
       </c>
       <c r="H32" t="n">
-        <v>0.026992237991496</v>
+        <v>0.027</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0524949356872013</v>
+        <v>0.052</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0243116029810949</v>
+        <v>0.024</v>
       </c>
       <c r="K32"/>
       <c r="L32" t="n">
-        <v>0.397464950684642</v>
+        <v>0.397</v>
       </c>
       <c r="M32" t="n">
-        <v>0.018644595164211</v>
+        <v>0.019</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0260482019753361</v>
+        <v>0.026</v>
       </c>
       <c r="O32"/>
       <c r="P32" t="n">
-        <v>0.235155047023466</v>
+        <v>0.235</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.86679121832703</v>
+        <v>1.867</v>
       </c>
       <c r="R32" t="n">
-        <v>-1.90996507227733</v>
+        <v>-1.91</v>
       </c>
       <c r="S32"/>
       <c r="T32" t="n">
-        <v>-15.5966906731907</v>
+        <v>-15.597</v>
       </c>
       <c r="U32" t="n">
-        <v>0.520171808271748</v>
+        <v>0.52</v>
       </c>
       <c r="V32" t="n">
-        <v>0.317010389955691</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="33">
@@ -2217,56 +2217,56 @@
         <v>26</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00394688665936401</v>
+        <v>0.004</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0087136394205254</v>
+        <v>0.009</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.00113213573899569</v>
+        <v>-0.001</v>
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>-0.227969780007303</v>
+        <v>-0.228</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0401791320585238</v>
+        <v>0.04</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0787530155474344</v>
+        <v>0.079</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0370707529131956</v>
+        <v>0.037</v>
       </c>
       <c r="K33"/>
       <c r="L33" t="n">
-        <v>0.468366213448868</v>
+        <v>0.468</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0482459112062656</v>
+        <v>0.048</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0224544104273653</v>
+        <v>0.022</v>
       </c>
       <c r="O33"/>
       <c r="P33" t="n">
-        <v>0.597260171898642</v>
+        <v>0.597</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.651926485418595</v>
+        <v>0.652</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.177555291322295</v>
+        <v>-0.178</v>
       </c>
       <c r="S33"/>
       <c r="T33" t="n">
-        <v>-24.9998958171004</v>
+        <v>-25</v>
       </c>
       <c r="U33" t="n">
-        <v>0.510882523514663</v>
+        <v>0.511</v>
       </c>
       <c r="V33" t="n">
-        <v>0.293138165924163</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="34">
@@ -2277,56 +2277,56 @@
         <v>27</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0124115638876978</v>
+        <v>0.012</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0197158796062163</v>
+        <v>-0.02</v>
       </c>
       <c r="E34" t="n">
-        <v>0.013025227347621</v>
+        <v>0.013</v>
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>-0.443838436112302</v>
+        <v>-0.444</v>
       </c>
       <c r="H34" t="n">
-        <v>0.039154634174572</v>
+        <v>0.039</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0846092031434064</v>
+        <v>0.085</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0433583609159015</v>
+        <v>0.043</v>
       </c>
       <c r="K34"/>
       <c r="L34" t="n">
-        <v>0.595921808905965</v>
+        <v>0.596</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.00949598285068099</v>
+        <v>-0.009</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.100493510955056</v>
+        <v>-0.1</v>
       </c>
       <c r="O34"/>
       <c r="P34" t="n">
-        <v>1.56650336645992</v>
+        <v>1.567</v>
       </c>
       <c r="Q34" t="n">
-        <v>-1.07835897014936</v>
+        <v>-1.078</v>
       </c>
       <c r="R34" t="n">
-        <v>1.25568912441513</v>
+        <v>1.256</v>
       </c>
       <c r="S34"/>
       <c r="T34" t="n">
-        <v>-31.9043602176871</v>
+        <v>-31.904</v>
       </c>
       <c r="U34" t="n">
-        <v>0.587249775046659</v>
+        <v>0.587</v>
       </c>
       <c r="V34" t="n">
-        <v>0.273518795939794</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="35">
@@ -2337,56 +2337,56 @@
         <v>28</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0120464641318632</v>
+        <v>0.012</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00121432406050854</v>
+        <v>0.001</v>
       </c>
       <c r="E35" t="n">
-        <v>0.00582167016978627</v>
+        <v>0.006</v>
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>-0.71128686920147</v>
+        <v>-0.711</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0375989641837643</v>
+        <v>0.038</v>
       </c>
       <c r="I35" t="n">
-        <v>0.076816861905449</v>
+        <v>0.077</v>
       </c>
       <c r="J35" t="n">
-        <v>0.037508158920491</v>
+        <v>0.038</v>
       </c>
       <c r="K35"/>
       <c r="L35" t="n">
-        <v>0.86903380715048</v>
+        <v>0.869</v>
       </c>
       <c r="M35" t="n">
-        <v>0.15717975183341</v>
+        <v>0.157</v>
       </c>
       <c r="N35" t="n">
-        <v>0.03460605856948</v>
+        <v>0.035</v>
       </c>
       <c r="O35"/>
       <c r="P35" t="n">
-        <v>1.32133681295516</v>
+        <v>1.321</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.0668326670627149</v>
+        <v>0.067</v>
       </c>
       <c r="R35" t="n">
-        <v>0.748288647741609</v>
+        <v>0.748</v>
       </c>
       <c r="S35"/>
       <c r="T35" t="n">
-        <v>-32.6780564768979</v>
+        <v>-32.678</v>
       </c>
       <c r="U35" t="n">
-        <v>0.561601410640387</v>
+        <v>0.562</v>
       </c>
       <c r="V35" t="n">
-        <v>0.304627626336026</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="36">
@@ -2397,56 +2397,56 @@
         <v>29</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0190692592407488</v>
+        <v>0.019</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0246872950747889</v>
+        <v>-0.025</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0172111360210346</v>
+        <v>0.017</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>-0.432680740759251</v>
+        <v>-0.433</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0367053649303239</v>
+        <v>0.037</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0814660451111771</v>
+        <v>0.081</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0432397463734</v>
+        <v>0.043</v>
       </c>
       <c r="K36"/>
       <c r="L36" t="n">
-        <v>0.74941695701714</v>
+        <v>0.749</v>
       </c>
       <c r="M36" t="n">
-        <v>0.157728488992673</v>
+        <v>0.158</v>
       </c>
       <c r="N36" t="n">
-        <v>0.261687280129607</v>
+        <v>0.262</v>
       </c>
       <c r="O36"/>
       <c r="P36" t="n">
-        <v>2.80358794028488</v>
+        <v>2.804</v>
       </c>
       <c r="Q36" t="n">
-        <v>-1.37876348891758</v>
+        <v>-1.379</v>
       </c>
       <c r="R36" t="n">
-        <v>1.4759379842004</v>
+        <v>1.476</v>
       </c>
       <c r="S36"/>
       <c r="T36" t="n">
-        <v>-29.8613404745927</v>
+        <v>-29.861</v>
       </c>
       <c r="U36" t="n">
-        <v>0.459026853741907</v>
+        <v>0.459</v>
       </c>
       <c r="V36" t="n">
-        <v>0.303500431245251</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="37">
@@ -2457,56 +2457,56 @@
         <v>30</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0107204069981618</v>
+        <v>0.011</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.000485607051472449</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0029910946686123</v>
+        <v>0.003</v>
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>-0.287612926335172</v>
+        <v>-0.288</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0296830712814474</v>
+        <v>0.03</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0660494278946526</v>
+        <v>0.066</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0346355372485859</v>
+        <v>0.035</v>
       </c>
       <c r="K37"/>
       <c r="L37" t="n">
-        <v>0.875580691063377</v>
+        <v>0.876</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.00560450795441982</v>
+        <v>-0.006</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0519873437685537</v>
+        <v>0.052</v>
       </c>
       <c r="O37"/>
       <c r="P37" t="n">
-        <v>2.34236505524291</v>
+        <v>2.342</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.0371619555203747</v>
+        <v>-0.037</v>
       </c>
       <c r="R37" t="n">
-        <v>0.30052374863037</v>
+        <v>0.301</v>
       </c>
       <c r="S37"/>
       <c r="T37" t="n">
-        <v>-20.6340758044658</v>
+        <v>-20.634</v>
       </c>
       <c r="U37" t="n">
-        <v>0.623759788869701</v>
+        <v>0.624</v>
       </c>
       <c r="V37" t="n">
-        <v>0.265742669469659</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="38">
@@ -2517,56 +2517,56 @@
         <v>31</v>
       </c>
       <c r="C38" t="n">
-        <v>0.00759271798945414</v>
+        <v>0.008</v>
       </c>
       <c r="D38" t="n">
-        <v>0.00401357434734708</v>
+        <v>0.004</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.00335880998529495</v>
+        <v>-0.003</v>
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>-0.0854072820105459</v>
+        <v>-0.085</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0195120853811257</v>
+        <v>0.02</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0426219105095433</v>
+        <v>0.043</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0214359451733471</v>
+        <v>0.021</v>
       </c>
       <c r="K38"/>
       <c r="L38" t="n">
-        <v>0.907515809251134</v>
+        <v>0.908</v>
       </c>
       <c r="M38" t="n">
-        <v>0.151501428309222</v>
+        <v>0.152</v>
       </c>
       <c r="N38" t="n">
-        <v>0.303659937996107</v>
+        <v>0.304</v>
       </c>
       <c r="O38"/>
       <c r="P38" t="n">
-        <v>1.59429975909281</v>
+        <v>1.594</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.329654572600121</v>
+        <v>0.33</v>
       </c>
       <c r="R38" t="n">
-        <v>-0.384267176453073</v>
+        <v>-0.384</v>
       </c>
       <c r="S38"/>
       <c r="T38" t="n">
-        <v>-5.55845838726079</v>
+        <v>-5.558</v>
       </c>
       <c r="U38" t="n">
-        <v>0.60694101819253</v>
+        <v>0.607</v>
       </c>
       <c r="V38" t="n">
-        <v>0.323663526314711</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="39">
@@ -2577,56 +2577,56 @@
         <v>32</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0055444239153013</v>
+        <v>0.006</v>
       </c>
       <c r="D39" t="n">
-        <v>0.00235246899207684</v>
+        <v>0.002</v>
       </c>
       <c r="E39" t="n">
-        <v>0.00165442802567965</v>
+        <v>0.002</v>
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>-0.0757650998942225</v>
+        <v>-0.076</v>
       </c>
       <c r="H39" t="n">
-        <v>0.00923174246899803</v>
+        <v>0.009</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0181741451443873</v>
+        <v>0.018</v>
       </c>
       <c r="J39" t="n">
-        <v>0.00810648455801261</v>
+        <v>0.008</v>
       </c>
       <c r="K39"/>
       <c r="L39" t="n">
-        <v>0.83053445260422</v>
+        <v>0.831</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.168410165447772</v>
+        <v>-0.168</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.0997220652353563</v>
+        <v>-0.1</v>
       </c>
       <c r="O39"/>
       <c r="P39" t="n">
-        <v>1.7145076783339</v>
+        <v>1.715</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.280480853328994</v>
+        <v>0.28</v>
       </c>
       <c r="R39" t="n">
-        <v>0.32458321048979</v>
+        <v>0.325</v>
       </c>
       <c r="S39"/>
       <c r="T39" t="n">
-        <v>-8.02054492655839</v>
+        <v>-8.021</v>
       </c>
       <c r="U39" t="n">
-        <v>0.693652021656802</v>
+        <v>0.694</v>
       </c>
       <c r="V39" t="n">
-        <v>0.287858078374679</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="40">
@@ -2637,56 +2637,56 @@
         <v>33</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0131185869820867</v>
+        <v>0.013</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0228484292381068</v>
+        <v>-0.023</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0199968654716915</v>
+        <v>0.02</v>
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>0.00534080920430889</v>
+        <v>0.005</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0800067639539318</v>
+        <v>0.08</v>
       </c>
       <c r="I40" t="n">
-        <v>0.172079076091617</v>
+        <v>0.172</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0871032383940343</v>
+        <v>0.087</v>
       </c>
       <c r="K40"/>
       <c r="L40" t="n">
-        <v>-0.0491340604713599</v>
+        <v>-0.049</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0548996642923946</v>
+        <v>-0.055</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.100904207626754</v>
+        <v>-0.101</v>
       </c>
       <c r="O40"/>
       <c r="P40" t="n">
-        <v>0.744582556446781</v>
+        <v>0.745</v>
       </c>
       <c r="Q40" t="n">
-        <v>-0.459353063118875</v>
+        <v>-0.459</v>
       </c>
       <c r="R40" t="n">
-        <v>0.603217848524312</v>
+        <v>0.603</v>
       </c>
       <c r="S40"/>
       <c r="T40" t="n">
-        <v>0.304063618857765</v>
+        <v>0.304</v>
       </c>
       <c r="U40" t="n">
-        <v>0.48332958534267</v>
+        <v>0.483</v>
       </c>
       <c r="V40" t="n">
-        <v>0.294834968812673</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="41">
@@ -2697,56 +2697,56 @@
         <v>34</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0238996889000788</v>
+        <v>0.024</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.0277651797207901</v>
+        <v>-0.028</v>
       </c>
       <c r="E41" t="n">
-        <v>0.027461877128623</v>
+        <v>0.027</v>
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>0.00173302223341211</v>
+        <v>0.002</v>
       </c>
       <c r="H41" t="n">
-        <v>0.033513383199746</v>
+        <v>0.034</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0653325952673569</v>
+        <v>0.065</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0294308468406825</v>
+        <v>0.029</v>
       </c>
       <c r="K41"/>
       <c r="L41" t="n">
-        <v>0.0437587752691764</v>
+        <v>0.044</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.00949017333760602</v>
+        <v>-0.009</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0648449555731015</v>
+        <v>0.065</v>
       </c>
       <c r="O41"/>
       <c r="P41" t="n">
-        <v>2.42333035654741</v>
+        <v>2.423</v>
       </c>
       <c r="Q41" t="n">
-        <v>-1.11894425880093</v>
+        <v>-1.119</v>
       </c>
       <c r="R41" t="n">
-        <v>1.75296555744823</v>
+        <v>1.753</v>
       </c>
       <c r="S41"/>
       <c r="T41" t="n">
-        <v>0.17556996354463</v>
+        <v>0.176</v>
       </c>
       <c r="U41" t="n">
-        <v>0.548906195057285</v>
+        <v>0.549</v>
       </c>
       <c r="V41" t="n">
-        <v>0.268893304487</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="42">
@@ -2757,56 +2757,56 @@
         <v>35</v>
       </c>
       <c r="C42" t="n">
-        <v>0.00338439091115396</v>
+        <v>0.003</v>
       </c>
       <c r="D42" t="n">
-        <v>0.00948111900865708</v>
+        <v>0.009</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.0043371513404333</v>
+        <v>-0.004</v>
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>-0.063115609088846</v>
+        <v>-0.063</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0197918617855619</v>
+        <v>0.02</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0365647777887564</v>
+        <v>0.037</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0154833344691257</v>
+        <v>0.015</v>
       </c>
       <c r="K42"/>
       <c r="L42" t="n">
-        <v>0.386322144228391</v>
+        <v>0.386</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0597456355122075</v>
+        <v>0.06</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0247193583245267</v>
+        <v>0.025</v>
       </c>
       <c r="O42"/>
       <c r="P42" t="n">
-        <v>0.619485163089122</v>
+        <v>0.619</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.652115159857256</v>
+        <v>0.652</v>
       </c>
       <c r="R42" t="n">
-        <v>-0.857392734994816</v>
+        <v>-0.857</v>
       </c>
       <c r="S42"/>
       <c r="T42" t="n">
-        <v>-8.66340405763727</v>
+        <v>-8.663</v>
       </c>
       <c r="U42" t="n">
-        <v>0.597110353429871</v>
+        <v>0.597</v>
       </c>
       <c r="V42" t="n">
-        <v>0.280731548698891</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="43">
@@ -2817,56 +2817,56 @@
         <v>36</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.00136884367897064</v>
+        <v>-0.001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0278020510339703</v>
+        <v>0.028</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.0112194975429683</v>
+        <v>-0.011</v>
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>-0.123868843678971</v>
+        <v>-0.124</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0341926141974302</v>
+        <v>0.034</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0684250935856463</v>
+        <v>0.068</v>
       </c>
       <c r="J43" t="n">
-        <v>0.033139871493064</v>
+        <v>0.033</v>
       </c>
       <c r="K43"/>
       <c r="L43" t="n">
-        <v>0.0904113612597662</v>
+        <v>0.09</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.0682782666725565</v>
+        <v>-0.068</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0245376301359376</v>
+        <v>0.025</v>
       </c>
       <c r="O43"/>
       <c r="P43" t="n">
-        <v>-0.206246881608046</v>
+        <v>-0.206</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.02753801696085</v>
+        <v>2.028</v>
       </c>
       <c r="R43" t="n">
-        <v>-1.7540552146285</v>
+        <v>-1.754</v>
       </c>
       <c r="S43"/>
       <c r="T43" t="n">
-        <v>-15.9130170636848</v>
+        <v>-15.913</v>
       </c>
       <c r="U43" t="n">
-        <v>0.443233263113625</v>
+        <v>0.443</v>
       </c>
       <c r="V43" t="n">
-        <v>0.334431675321937</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="44">
@@ -2877,56 +2877,56 @@
         <v>37</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.000544048913328274</v>
+        <v>-0.001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0236588017376235</v>
+        <v>0.024</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.0133805417871372</v>
+        <v>-0.013</v>
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>-0.211377382246662</v>
+        <v>-0.211</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0408854972110669</v>
+        <v>0.041</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0804051657981711</v>
+        <v>0.08</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0379502043893099</v>
+        <v>0.038</v>
       </c>
       <c r="K44"/>
       <c r="L44" t="n">
-        <v>0.613330530825253</v>
+        <v>0.613</v>
       </c>
       <c r="M44" t="n">
-        <v>0.307225461166238</v>
+        <v>0.307</v>
       </c>
       <c r="N44" t="n">
-        <v>0.203508680369966</v>
+        <v>0.204</v>
       </c>
       <c r="O44"/>
       <c r="P44" t="n">
-        <v>-0.056518102985473</v>
+        <v>-0.057</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.24118234263953</v>
+        <v>1.241</v>
       </c>
       <c r="R44" t="n">
-        <v>-1.41946314874952</v>
+        <v>-1.419</v>
       </c>
       <c r="S44"/>
       <c r="T44" t="n">
-        <v>-15.5443456280233</v>
+        <v>-15.544</v>
       </c>
       <c r="U44" t="n">
-        <v>0.455478153693297</v>
+        <v>0.455</v>
       </c>
       <c r="V44" t="n">
-        <v>0.28356671367981</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="45">
@@ -2937,56 +2937,56 @@
         <v>38</v>
       </c>
       <c r="C45" t="n">
-        <v>0.00843782223205629</v>
+        <v>0.008</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.00623152289657267</v>
+        <v>-0.006</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0111162703091459</v>
+        <v>0.011</v>
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>-0.244562177767944</v>
+        <v>-0.245</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0394727669059807</v>
+        <v>0.039</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0771008652966978</v>
+        <v>0.077</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0361913014370814</v>
+        <v>0.036</v>
       </c>
       <c r="K45"/>
       <c r="L45" t="n">
-        <v>0.239723208608407</v>
+        <v>0.24</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.245778090816181</v>
+        <v>-0.246</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.273451416950046</v>
+        <v>-0.273</v>
       </c>
       <c r="O45"/>
       <c r="P45" t="n">
-        <v>0.927208261449251</v>
+        <v>0.927</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.333211873725712</v>
+        <v>-0.333</v>
       </c>
       <c r="R45" t="n">
-        <v>1.32807914506183</v>
+        <v>1.328</v>
       </c>
       <c r="S45"/>
       <c r="T45" t="n">
-        <v>-20.5824642624227</v>
+        <v>-20.582</v>
       </c>
       <c r="U45" t="n">
-        <v>0.566286893336028</v>
+        <v>0.566</v>
       </c>
       <c r="V45" t="n">
-        <v>0.294385773810123</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="46">
@@ -2997,56 +2997,56 @@
         <v>39</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0220219449185082</v>
+        <v>0.022</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.0403777872495866</v>
+        <v>-0.04</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0240494151586481</v>
+        <v>0.024</v>
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>-0.420978055081492</v>
+        <v>-0.421</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0373483202609212</v>
+        <v>0.037</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0779994673724044</v>
+        <v>0.078</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0386833439624796</v>
+        <v>0.039</v>
       </c>
       <c r="K46"/>
       <c r="L46" t="n">
-        <v>0.57790759708045</v>
+        <v>0.578</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0711594308356791</v>
+        <v>0.071</v>
       </c>
       <c r="N46" t="n">
-        <v>0.0490511081344458</v>
+        <v>0.049</v>
       </c>
       <c r="O46"/>
       <c r="P46" t="n">
-        <v>2.17946365454362</v>
+        <v>2.179</v>
       </c>
       <c r="Q46" t="n">
-        <v>-1.79796833650955</v>
+        <v>-1.798</v>
       </c>
       <c r="R46" t="n">
-        <v>2.02576335040288</v>
+        <v>2.026</v>
       </c>
       <c r="S46"/>
       <c r="T46" t="n">
-        <v>-28.5768049336652</v>
+        <v>-28.577</v>
       </c>
       <c r="U46" t="n">
-        <v>0.619253229152685</v>
+        <v>0.619</v>
       </c>
       <c r="V46" t="n">
-        <v>0.279522397986936</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="47">
@@ -3057,56 +3057,56 @@
         <v>40</v>
       </c>
       <c r="C47" t="n">
-        <v>0.00280118285688733</v>
+        <v>0.003</v>
       </c>
       <c r="D47" t="n">
-        <v>0.000946028037154029</v>
+        <v>0.001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.00200103953659385</v>
+        <v>0.002</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>-0.466698817143113</v>
+        <v>-0.467</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0409609480882228</v>
+        <v>0.041</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0912189389144084</v>
+        <v>0.091</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0480333778693234</v>
+        <v>0.048</v>
       </c>
       <c r="K47"/>
       <c r="L47" t="n">
-        <v>0.608278035585252</v>
+        <v>0.608</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.0340143946903716</v>
+        <v>-0.034</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.159302218057568</v>
+        <v>-0.159</v>
       </c>
       <c r="O47"/>
       <c r="P47" t="n">
-        <v>0.230253895133758</v>
+        <v>0.23</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0328444768839638</v>
+        <v>0.033</v>
       </c>
       <c r="R47" t="n">
-        <v>0.117711740475091</v>
+        <v>0.118</v>
       </c>
       <c r="S47"/>
       <c r="T47" t="n">
-        <v>-19.9737459817872</v>
+        <v>-19.974</v>
       </c>
       <c r="U47" t="n">
-        <v>0.555246320940633</v>
+        <v>0.555</v>
       </c>
       <c r="V47" t="n">
-        <v>0.265851725578107</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="48">
@@ -3117,56 +3117,56 @@
         <v>41</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.0108163404853102</v>
+        <v>-0.011</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0343250703126399</v>
+        <v>0.034</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.00105151122905395</v>
+        <v>-0.001</v>
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>-0.63731634048531</v>
+        <v>-0.637</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0363355171346432</v>
+        <v>0.036</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0740280960559853</v>
+        <v>0.074</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0358795156893206</v>
+        <v>0.036</v>
       </c>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>0.881651671712909</v>
+        <v>0.882</v>
       </c>
       <c r="M48" t="n">
-        <v>0.15572460967833</v>
+        <v>0.156</v>
       </c>
       <c r="N48" t="n">
-        <v>0.090219919352174</v>
+        <v>0.09</v>
       </c>
       <c r="O48"/>
       <c r="P48" t="n">
-        <v>-0.701444893184693</v>
+        <v>-0.701</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.11620208812763</v>
+        <v>1.116</v>
       </c>
       <c r="R48" t="n">
-        <v>-0.0867486499869444</v>
+        <v>-0.087</v>
       </c>
       <c r="S48"/>
       <c r="T48" t="n">
-        <v>-19.8332097536367</v>
+        <v>-19.833</v>
       </c>
       <c r="U48" t="n">
-        <v>0.538197385152552</v>
+        <v>0.538</v>
       </c>
       <c r="V48" t="n">
-        <v>0.318315095159104</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="49">
@@ -3177,56 +3177,56 @@
         <v>42</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0349092687490365</v>
+        <v>0.035</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.0318964221916228</v>
+        <v>-0.032</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0126948515686265</v>
+        <v>0.013</v>
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>-0.78525739791763</v>
+        <v>-0.785</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0388624112328855</v>
+        <v>0.039</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0796056277549127</v>
+        <v>0.08</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0391368021516615</v>
+        <v>0.039</v>
       </c>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>0.810882795729995</v>
+        <v>0.811</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0844798160415708</v>
+        <v>0.084</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.0431718715768267</v>
+        <v>-0.043</v>
       </c>
       <c r="O49"/>
       <c r="P49" t="n">
-        <v>3.90812460264599</v>
+        <v>3.908</v>
       </c>
       <c r="Q49" t="n">
-        <v>-1.70761378882518</v>
+        <v>-1.708</v>
       </c>
       <c r="R49" t="n">
-        <v>1.29812981399463</v>
+        <v>1.298</v>
       </c>
       <c r="S49"/>
       <c r="T49" t="n">
-        <v>-29.8268370828583</v>
+        <v>-29.827</v>
       </c>
       <c r="U49" t="n">
-        <v>0.585005436128223</v>
+        <v>0.585</v>
       </c>
       <c r="V49" t="n">
-        <v>0.291084634406908</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="50">
@@ -3237,56 +3237,56 @@
         <v>43</v>
       </c>
       <c r="C50" t="n">
-        <v>0.013617211849092</v>
+        <v>0.014</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.00680195809095125</v>
+        <v>-0.007</v>
       </c>
       <c r="E50" t="n">
-        <v>0.000667823646063543</v>
+        <v>0.001</v>
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>-0.538882788150908</v>
+        <v>-0.539</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0289699690226905</v>
+        <v>0.029</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0634793338961338</v>
+        <v>0.063</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0331343106461778</v>
+        <v>0.033</v>
       </c>
       <c r="K50"/>
       <c r="L50" t="n">
-        <v>0.641574679827678</v>
+        <v>0.642</v>
       </c>
       <c r="M50" t="n">
-        <v>0.00444349882316493</v>
+        <v>0.004</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0476587212459601</v>
+        <v>0.048</v>
       </c>
       <c r="O50"/>
       <c r="P50" t="n">
-        <v>1.80785481114398</v>
+        <v>1.808</v>
       </c>
       <c r="Q50" t="n">
-        <v>-0.414146508051034</v>
+        <v>-0.414</v>
       </c>
       <c r="R50" t="n">
-        <v>0.0920226804112315</v>
+        <v>0.092</v>
       </c>
       <c r="S50"/>
       <c r="T50" t="n">
-        <v>-35.4166062899054</v>
+        <v>-35.417</v>
       </c>
       <c r="U50" t="n">
-        <v>0.479767121299267</v>
+        <v>0.48</v>
       </c>
       <c r="V50" t="n">
-        <v>0.306571667343821</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="51">
@@ -3297,56 +3297,56 @@
         <v>44</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0245213066324055</v>
+        <v>0.025</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.0425726320586265</v>
+        <v>-0.043</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0337544483960056</v>
+        <v>0.034</v>
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>-0.326478693367594</v>
+        <v>-0.326</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0444407608379573</v>
+        <v>0.044</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0994527563262204</v>
+        <v>0.099</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0533451821006223</v>
+        <v>0.053</v>
       </c>
       <c r="K51"/>
       <c r="L51" t="n">
-        <v>0.470560960726112</v>
+        <v>0.471</v>
       </c>
       <c r="M51" t="n">
-        <v>0.205666392177834</v>
+        <v>0.206</v>
       </c>
       <c r="N51" t="n">
-        <v>0.293824216355744</v>
+        <v>0.294</v>
       </c>
       <c r="O51"/>
       <c r="P51" t="n">
-        <v>2.15998382099623</v>
+        <v>2.16</v>
       </c>
       <c r="Q51" t="n">
-        <v>-1.33780524202114</v>
+        <v>-1.338</v>
       </c>
       <c r="R51" t="n">
-        <v>1.53019549990726</v>
+        <v>1.53</v>
       </c>
       <c r="S51"/>
       <c r="T51" t="n">
-        <v>-21.3850805050674</v>
+        <v>-21.385</v>
       </c>
       <c r="U51" t="n">
-        <v>0.438286586184547</v>
+        <v>0.438</v>
       </c>
       <c r="V51" t="n">
-        <v>0.301538001385607</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="52">
@@ -3357,56 +3357,56 @@
         <v>45</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0127331518504436</v>
+        <v>0.013</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.00299705659217513</v>
+        <v>-0.003</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0029136107620976</v>
+        <v>0.003</v>
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>-0.40860018148289</v>
+        <v>-0.409</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0414848031940158</v>
+        <v>0.041</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0921878179395558</v>
+        <v>0.092</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0490663408361636</v>
+        <v>0.049</v>
       </c>
       <c r="K52"/>
       <c r="L52" t="n">
-        <v>0.309458776681342</v>
+        <v>0.309</v>
       </c>
       <c r="M52" t="n">
-        <v>0.139120954256784</v>
+        <v>0.139</v>
       </c>
       <c r="N52" t="n">
-        <v>0.164185924995082</v>
+        <v>0.164</v>
       </c>
       <c r="O52"/>
       <c r="P52" t="n">
-        <v>1.69611416189362</v>
+        <v>1.696</v>
       </c>
       <c r="Q52" t="n">
-        <v>-0.138596424335353</v>
+        <v>-0.139</v>
       </c>
       <c r="R52" t="n">
-        <v>0.175058976557406</v>
+        <v>0.175</v>
       </c>
       <c r="S52"/>
       <c r="T52" t="n">
-        <v>-39.9505851288205</v>
+        <v>-39.951</v>
       </c>
       <c r="U52" t="n">
-        <v>0.573477832862276</v>
+        <v>0.573</v>
       </c>
       <c r="V52" t="n">
-        <v>0.254357329668199</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="53">
@@ -3417,56 +3417,56 @@
         <v>46</v>
       </c>
       <c r="C53" t="n">
-        <v>0.00870766214587997</v>
+        <v>0.009</v>
       </c>
       <c r="D53" t="n">
-        <v>0.00202584248923023</v>
+        <v>0.002</v>
       </c>
       <c r="E53" t="n">
-        <v>0.00306857857512701</v>
+        <v>0.003</v>
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>-0.166625671187453</v>
+        <v>-0.167</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0178813393688791</v>
+        <v>0.018</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0399110378497493</v>
+        <v>0.04</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0202047336610082</v>
+        <v>0.02</v>
       </c>
       <c r="K53"/>
       <c r="L53" t="n">
-        <v>0.873773805247351</v>
+        <v>0.874</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.186428071871438</v>
+        <v>-0.186</v>
       </c>
       <c r="N53" t="n">
-        <v>-0.136983189316992</v>
+        <v>-0.137</v>
       </c>
       <c r="O53"/>
       <c r="P53" t="n">
-        <v>1.64558448661596</v>
+        <v>1.646</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.136278655193665</v>
+        <v>0.136</v>
       </c>
       <c r="R53" t="n">
-        <v>0.277143832146547</v>
+        <v>0.277</v>
       </c>
       <c r="S53"/>
       <c r="T53" t="n">
-        <v>-12.3195358931304</v>
+        <v>-12.32</v>
       </c>
       <c r="U53" t="n">
-        <v>0.674041744877126</v>
+        <v>0.674</v>
       </c>
       <c r="V53" t="n">
-        <v>0.269435265287563</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="54">
@@ -3477,56 +3477,56 @@
         <v>47</v>
       </c>
       <c r="C54" t="n">
-        <v>0.00915891912211194</v>
+        <v>0.009</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.0040280758348449</v>
+        <v>-0.004</v>
       </c>
       <c r="E54" t="n">
-        <v>0.00265159642842883</v>
+        <v>0.003</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>-0.175007747544555</v>
+        <v>-0.175</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0269063417944181</v>
+        <v>0.027</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0600287718234794</v>
+        <v>0.06</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0308362339548914</v>
+        <v>0.031</v>
       </c>
       <c r="K54"/>
       <c r="L54" t="n">
-        <v>0.902403984738841</v>
+        <v>0.902</v>
       </c>
       <c r="M54" t="n">
-        <v>0.193771011968863</v>
+        <v>0.194</v>
       </c>
       <c r="N54" t="n">
-        <v>0.345820763962842</v>
+        <v>0.346</v>
       </c>
       <c r="O54"/>
       <c r="P54" t="n">
-        <v>1.12573142641932</v>
+        <v>1.126</v>
       </c>
       <c r="Q54" t="n">
-        <v>-0.184342704188449</v>
+        <v>-0.184</v>
       </c>
       <c r="R54" t="n">
-        <v>0.158829685879112</v>
+        <v>0.159</v>
       </c>
       <c r="S54"/>
       <c r="T54" t="n">
-        <v>-6.83734432586476</v>
+        <v>-6.837</v>
       </c>
       <c r="U54" t="n">
-        <v>0.573306045045603</v>
+        <v>0.573</v>
       </c>
       <c r="V54" t="n">
-        <v>0.336548311620784</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="55">
@@ -3537,56 +3537,56 @@
         <v>48</v>
       </c>
       <c r="C55" t="n">
-        <v>0.00602651685679634</v>
+        <v>0.006</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0120552245295391</v>
+        <v>0.012</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.00936921639901874</v>
+        <v>-0.009</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>0.00419318352346301</v>
+        <v>0.004</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0121178289678333</v>
+        <v>0.012</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0252150491956072</v>
+        <v>0.025</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0120356563918027</v>
+        <v>0.012</v>
       </c>
       <c r="K55"/>
       <c r="L55" t="n">
-        <v>0.0448522182740408</v>
+        <v>0.045</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.0534256312824887</v>
+        <v>-0.053</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.162361020769056</v>
+        <v>-0.162</v>
       </c>
       <c r="O55"/>
       <c r="P55" t="n">
-        <v>1.20017629318292</v>
+        <v>1.2</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.10837921579211</v>
+        <v>1.108</v>
       </c>
       <c r="R55" t="n">
-        <v>-1.76233648742508</v>
+        <v>-1.762</v>
       </c>
       <c r="S55"/>
       <c r="T55" t="n">
-        <v>0.837322787607758</v>
+        <v>0.837</v>
       </c>
       <c r="U55" t="n">
-        <v>0.640575991339456</v>
+        <v>0.641</v>
       </c>
       <c r="V55" t="n">
-        <v>0.309396151802068</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="56">
@@ -3597,56 +3597,56 @@
         <v>49</v>
       </c>
       <c r="C56" t="n">
-        <v>0.00649922934371453</v>
+        <v>0.006</v>
       </c>
       <c r="D56" t="n">
-        <v>0.00399893818781161</v>
+        <v>0.004</v>
       </c>
       <c r="E56" t="n">
-        <v>0.000053511692520847</v>
+        <v>0</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>-0.0833341039896188</v>
+        <v>-0.083</v>
       </c>
       <c r="H56" t="n">
-        <v>0.00994826341651923</v>
+        <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0199545345479014</v>
+        <v>0.02</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0092324729650724</v>
+        <v>0.009</v>
       </c>
       <c r="K56"/>
       <c r="L56" t="n">
-        <v>0.794887054438628</v>
+        <v>0.795</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.0579090226422177</v>
+        <v>-0.058</v>
       </c>
       <c r="N56" t="n">
-        <v>-0.0796149223255586</v>
+        <v>-0.08</v>
       </c>
       <c r="O56"/>
       <c r="P56" t="n">
-        <v>1.67240668377129</v>
+        <v>1.672</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.394918519817771</v>
+        <v>0.395</v>
       </c>
       <c r="R56" t="n">
-        <v>0.0079438456782411</v>
+        <v>0.008</v>
       </c>
       <c r="S56"/>
       <c r="T56" t="n">
-        <v>-8.431745485676</v>
+        <v>-8.432</v>
       </c>
       <c r="U56" t="n">
-        <v>0.695393506268718</v>
+        <v>0.695</v>
       </c>
       <c r="V56" t="n">
-        <v>0.295104429847529</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="57">
@@ -3657,56 +3657,56 @@
         <v>50</v>
       </c>
       <c r="C57" t="n">
-        <v>0.00315741034426822</v>
+        <v>0.003</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.0017637039972601</v>
+        <v>-0.002</v>
       </c>
       <c r="E57" t="n">
-        <v>0.00565671885857665</v>
+        <v>0.006</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>-0.0568425896557318</v>
+        <v>-0.057</v>
       </c>
       <c r="H57" t="n">
-        <v>0.00744044010019503</v>
+        <v>0.007</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0137231716356021</v>
+        <v>0.014</v>
       </c>
       <c r="J57" t="n">
-        <v>0.00529151354036313</v>
+        <v>0.005</v>
       </c>
       <c r="K57"/>
       <c r="L57" t="n">
-        <v>0.890399481614211</v>
+        <v>0.89</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.434448218307874</v>
+        <v>-0.434</v>
       </c>
       <c r="N57" t="n">
-        <v>-0.318830757866122</v>
+        <v>-0.319</v>
       </c>
       <c r="O57"/>
       <c r="P57" t="n">
-        <v>0.534564893576954</v>
+        <v>0.535</v>
       </c>
       <c r="Q57" t="n">
-        <v>-0.116318344312263</v>
+        <v>-0.116</v>
       </c>
       <c r="R57" t="n">
-        <v>0.94066714076284</v>
+        <v>0.941</v>
       </c>
       <c r="S57"/>
       <c r="T57" t="n">
-        <v>-2.5976469076456</v>
+        <v>-2.598</v>
       </c>
       <c r="U57" t="n">
-        <v>0.689298310127014</v>
+        <v>0.689</v>
       </c>
       <c r="V57" t="n">
-        <v>0.274956198477058</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="58">
@@ -3717,56 +3717,56 @@
         <v>23</v>
       </c>
       <c r="C58" t="n">
-        <v>0.00306473021651016</v>
+        <v>0.003</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.0000815508690311238</v>
+        <v>0</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="n">
-        <v>0.0942963795525637</v>
+        <v>0.094</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.272134133419853</v>
+        <v>-0.272</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0198842807836691</v>
+        <v>0.02</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0337597862546153</v>
+        <v>0.034</v>
       </c>
       <c r="J58"/>
       <c r="K58" t="n">
-        <v>0.55919873792917</v>
+        <v>0.559</v>
       </c>
       <c r="L58" t="n">
-        <v>0.889880533330977</v>
+        <v>0.89</v>
       </c>
       <c r="M58" t="n">
-        <v>0.00221447823594587</v>
+        <v>0.002</v>
       </c>
       <c r="N58"/>
       <c r="O58" t="n">
-        <v>0.024335913885943</v>
+        <v>0.024</v>
       </c>
       <c r="P58" t="n">
-        <v>1.18495050498293</v>
+        <v>1.185</v>
       </c>
       <c r="Q58" t="n">
-        <v>-0.0277018029843191</v>
+        <v>-0.028</v>
       </c>
       <c r="R58"/>
       <c r="S58" t="n">
-        <v>2.27252835857096</v>
+        <v>2.273</v>
       </c>
       <c r="T58" t="n">
-        <v>-32.885749574524</v>
+        <v>-32.886</v>
       </c>
       <c r="U58" t="n">
-        <v>0.546489435030962</v>
+        <v>0.546</v>
       </c>
       <c r="V58" t="n">
-        <v>0.303595863295347</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="59">
@@ -3777,56 +3777,56 @@
         <v>24</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.0101282007898379</v>
+        <v>-0.01</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.0110273157375297</v>
+        <v>-0.011</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="n">
-        <v>0.36308812338411</v>
+        <v>0.363</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.0244463826080197</v>
+        <v>-0.024</v>
       </c>
       <c r="H59" t="n">
-        <v>0.02091801446192</v>
+        <v>0.021</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0492957800169285</v>
+        <v>0.049</v>
       </c>
       <c r="J59"/>
       <c r="K59" t="n">
-        <v>0.42923959691154</v>
+        <v>0.429</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.0687556166683525</v>
+        <v>-0.069</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.0036960097546784</v>
+        <v>-0.004</v>
       </c>
       <c r="N59"/>
       <c r="O59" t="n">
-        <v>-0.00536373040532851</v>
+        <v>-0.005</v>
       </c>
       <c r="P59" t="n">
-        <v>-0.813281959840462</v>
+        <v>-0.813</v>
       </c>
       <c r="Q59" t="n">
-        <v>-1.06375776931735</v>
+        <v>-1.064</v>
       </c>
       <c r="R59"/>
       <c r="S59" t="n">
-        <v>1.98820890140367</v>
+        <v>1.988</v>
       </c>
       <c r="T59" t="n">
-        <v>-1.95504627804893</v>
+        <v>-1.955</v>
       </c>
       <c r="U59" t="n">
-        <v>0.528936739663906</v>
+        <v>0.529</v>
       </c>
       <c r="V59" t="n">
-        <v>0.291468129706874</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="60">
@@ -3837,56 +3837,56 @@
         <v>25</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0126631699959235</v>
+        <v>0.013</v>
       </c>
       <c r="D60" t="n">
-        <v>0.00766633464729649</v>
+        <v>0.008</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="n">
-        <v>-0.13246783644057</v>
+        <v>-0.132</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.0818368300040765</v>
+        <v>-0.082</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0188147309531568</v>
+        <v>0.019</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0282914323057517</v>
+        <v>0.028</v>
       </c>
       <c r="J60"/>
       <c r="K60" t="n">
-        <v>0.634868069994726</v>
+        <v>0.635</v>
       </c>
       <c r="L60" t="n">
-        <v>0.328462189647817</v>
+        <v>0.328</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.0550482215179479</v>
+        <v>-0.055</v>
       </c>
       <c r="N60"/>
       <c r="O60" t="n">
-        <v>-0.12617192962011</v>
+        <v>-0.126</v>
       </c>
       <c r="P60" t="n">
-        <v>2.96993655486502</v>
+        <v>2.97</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.04749725150095</v>
+        <v>1.047</v>
       </c>
       <c r="R60"/>
       <c r="S60" t="n">
-        <v>-1.40415079318041</v>
+        <v>-1.404</v>
       </c>
       <c r="T60" t="n">
-        <v>-14.7420985201316</v>
+        <v>-14.742</v>
       </c>
       <c r="U60" t="n">
-        <v>0.511664645622382</v>
+        <v>0.512</v>
       </c>
       <c r="V60" t="n">
-        <v>0.315762734198688</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="61">
@@ -3897,56 +3897,56 @@
         <v>26</v>
       </c>
       <c r="C61" t="n">
-        <v>0.00542655010152057</v>
+        <v>0.005</v>
       </c>
       <c r="D61" t="n">
-        <v>0.00586372656998184</v>
+        <v>0.006</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="n">
-        <v>-0.0029252948522084</v>
+        <v>-0.003</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.226490116565146</v>
+        <v>-0.226</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0152477097465629</v>
+        <v>0.015</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0235861136327522</v>
+        <v>0.024</v>
       </c>
       <c r="J61"/>
       <c r="K61" t="n">
-        <v>0.515450660153029</v>
+        <v>0.515</v>
       </c>
       <c r="L61" t="n">
-        <v>0.567618884722311</v>
+        <v>0.568</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.0101750862692265</v>
+        <v>-0.01</v>
       </c>
       <c r="N61"/>
       <c r="O61" t="n">
-        <v>0.050974055623604</v>
+        <v>0.051</v>
       </c>
       <c r="P61" t="n">
-        <v>1.32047480980541</v>
+        <v>1.32</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.802687308532874</v>
+        <v>0.803</v>
       </c>
       <c r="R61"/>
       <c r="S61" t="n">
-        <v>-0.0401164922468415</v>
+        <v>-0.04</v>
       </c>
       <c r="T61" t="n">
-        <v>-28.1294494867003</v>
+        <v>-28.129</v>
       </c>
       <c r="U61" t="n">
-        <v>0.499867259767481</v>
+        <v>0.5</v>
       </c>
       <c r="V61" t="n">
-        <v>0.300383039776998</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="62">
@@ -3957,56 +3957,56 @@
         <v>27</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.00444943961397754</v>
+        <v>-0.004</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.00908872842243824</v>
+        <v>-0.009</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="n">
-        <v>0.282044383526036</v>
+        <v>0.282</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.460699439613978</v>
+        <v>-0.461</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0257356260170545</v>
+        <v>0.026</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0464583853404756</v>
+        <v>0.046</v>
       </c>
       <c r="J62"/>
       <c r="K62" t="n">
-        <v>0.890381723711919</v>
+        <v>0.89</v>
       </c>
       <c r="L62" t="n">
-        <v>0.565585411306455</v>
+        <v>0.566</v>
       </c>
       <c r="M62" t="n">
-        <v>0.0221224116216325</v>
+        <v>0.022</v>
       </c>
       <c r="N62"/>
       <c r="O62" t="n">
-        <v>0.032663956086045</v>
+        <v>0.033</v>
       </c>
       <c r="P62" t="n">
-        <v>-0.620401005875903</v>
+        <v>-0.62</v>
       </c>
       <c r="Q62" t="n">
-        <v>-0.742360618633495</v>
+        <v>-0.742</v>
       </c>
       <c r="R62"/>
       <c r="S62" t="n">
-        <v>1.97022033128162</v>
+        <v>1.97</v>
       </c>
       <c r="T62" t="n">
-        <v>-36.9311643102875</v>
+        <v>-36.931</v>
       </c>
       <c r="U62" t="n">
-        <v>0.560729994179544</v>
+        <v>0.561</v>
       </c>
       <c r="V62" t="n">
-        <v>0.283808496718016</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="63">
@@ -4017,56 +4017,56 @@
         <v>28</v>
       </c>
       <c r="C63" t="n">
-        <v>0.00195414857512766</v>
+        <v>0.002</v>
       </c>
       <c r="D63" t="n">
-        <v>0.00275980956239568</v>
+        <v>0.003</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="n">
-        <v>0.165179558520634</v>
+        <v>0.165</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.721379184758206</v>
+        <v>-0.721</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0214767508680281</v>
+        <v>0.021</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0458768014588739</v>
+        <v>0.046</v>
       </c>
       <c r="J63"/>
       <c r="K63" t="n">
-        <v>0.698711547081594</v>
+        <v>0.699</v>
       </c>
       <c r="L63" t="n">
-        <v>0.85394079359328</v>
+        <v>0.854</v>
       </c>
       <c r="M63" t="n">
-        <v>0.0571933874650458</v>
+        <v>0.057</v>
       </c>
       <c r="N63"/>
       <c r="O63" t="n">
-        <v>-0.244001032417875</v>
+        <v>-0.244</v>
       </c>
       <c r="P63" t="n">
-        <v>0.33882835618554</v>
+        <v>0.339</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.263005436126419</v>
+        <v>0.263</v>
       </c>
       <c r="R63"/>
       <c r="S63" t="n">
-        <v>1.58891767920372</v>
+        <v>1.589</v>
       </c>
       <c r="T63" t="n">
-        <v>-32.7026862928988</v>
+        <v>-32.703</v>
       </c>
       <c r="U63" t="n">
-        <v>0.528143667171105</v>
+        <v>0.528</v>
       </c>
       <c r="V63" t="n">
-        <v>0.33456695152356</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="64">
@@ -4077,56 +4077,56 @@
         <v>29</v>
       </c>
       <c r="C64" t="n">
-        <v>0.00106191682937826</v>
+        <v>0.001</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.00220460800511288</v>
+        <v>-0.002</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="n">
-        <v>0.156000045910387</v>
+        <v>0.156</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.450688083170622</v>
+        <v>-0.451</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0233049733616337</v>
+        <v>0.023</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0252992148141234</v>
+        <v>0.025</v>
       </c>
       <c r="J64"/>
       <c r="K64" t="n">
-        <v>0.455331315362433</v>
+        <v>0.455</v>
       </c>
       <c r="L64" t="n">
-        <v>0.77583580685772</v>
+        <v>0.776</v>
       </c>
       <c r="M64" t="n">
-        <v>-0.0675090746170592</v>
+        <v>-0.068</v>
       </c>
       <c r="N64"/>
       <c r="O64" t="n">
-        <v>-0.00528466753600645</v>
+        <v>-0.005</v>
       </c>
       <c r="P64" t="n">
-        <v>0.150872955125912</v>
+        <v>0.151</v>
       </c>
       <c r="Q64" t="n">
-        <v>-0.316235594769999</v>
+        <v>-0.316</v>
       </c>
       <c r="R64"/>
       <c r="S64" t="n">
-        <v>1.51385514112005</v>
+        <v>1.514</v>
       </c>
       <c r="T64" t="n">
-        <v>-31.7798019445393</v>
+        <v>-31.78</v>
       </c>
       <c r="U64" t="n">
-        <v>0.490943585391228</v>
+        <v>0.491</v>
       </c>
       <c r="V64" t="n">
-        <v>0.307339418413435</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="65">
@@ -4137,56 +4137,56 @@
         <v>30</v>
       </c>
       <c r="C65" t="n">
-        <v>0.00693631685694679</v>
+        <v>0.007</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.000479843640993604</v>
+        <v>0</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="n">
-        <v>0.0678528235931971</v>
+        <v>0.068</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.291397016476387</v>
+        <v>-0.291</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0178596619557817</v>
+        <v>0.018</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0297489931826484</v>
+        <v>0.03</v>
       </c>
       <c r="J65"/>
       <c r="K65" t="n">
-        <v>0.415635561908519</v>
+        <v>0.416</v>
       </c>
       <c r="L65" t="n">
-        <v>0.694689590598834</v>
+        <v>0.695</v>
       </c>
       <c r="M65" t="n">
-        <v>0.0294559849249749</v>
+        <v>0.029</v>
       </c>
       <c r="N65"/>
       <c r="O65" t="n">
-        <v>0.0181012579817972</v>
+        <v>0.018</v>
       </c>
       <c r="P65" t="n">
-        <v>0.902521832376603</v>
+        <v>0.903</v>
       </c>
       <c r="Q65" t="n">
-        <v>-0.0630288132251802</v>
+        <v>-0.063</v>
       </c>
       <c r="R65"/>
       <c r="S65" t="n">
-        <v>0.765608880592962</v>
+        <v>0.766</v>
       </c>
       <c r="T65" t="n">
-        <v>-19.2252150487951</v>
+        <v>-19.225</v>
       </c>
       <c r="U65" t="n">
-        <v>0.6087988359021</v>
+        <v>0.609</v>
       </c>
       <c r="V65" t="n">
-        <v>0.25992952534983</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="66">
@@ -4197,56 +4197,56 @@
         <v>31</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0127826677784607</v>
+        <v>0.013</v>
       </c>
       <c r="D66" t="n">
-        <v>0.00466971229895905</v>
+        <v>0.005</v>
       </c>
       <c r="E66"/>
       <c r="F66" t="n">
-        <v>-0.145268816666189</v>
+        <v>-0.145</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.0802173322215393</v>
+        <v>-0.08</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0212696302450004</v>
+        <v>0.021</v>
       </c>
       <c r="I66" t="n">
-        <v>0.031231901903583</v>
+        <v>0.031</v>
       </c>
       <c r="J66"/>
       <c r="K66" t="n">
-        <v>0.585952541792256</v>
+        <v>0.586</v>
       </c>
       <c r="L66" t="n">
-        <v>0.766861992436751</v>
+        <v>0.767</v>
       </c>
       <c r="M66" t="n">
-        <v>-0.0048210495866142</v>
+        <v>-0.005</v>
       </c>
       <c r="N66"/>
       <c r="O66" t="n">
-        <v>0.23665734596234</v>
+        <v>0.237</v>
       </c>
       <c r="P66" t="n">
-        <v>1.45219973341719</v>
+        <v>1.452</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.709011556852065</v>
+        <v>0.709</v>
       </c>
       <c r="R66"/>
       <c r="S66" t="n">
-        <v>-0.991506586734046</v>
+        <v>-0.992</v>
       </c>
       <c r="T66" t="n">
-        <v>-5.04813500896819</v>
+        <v>-5.048</v>
       </c>
       <c r="U66" t="n">
-        <v>0.593919115841345</v>
+        <v>0.594</v>
       </c>
       <c r="V66" t="n">
-        <v>0.308714817325002</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="67">
@@ -4257,56 +4257,56 @@
         <v>32</v>
       </c>
       <c r="C67" t="n">
-        <v>0.00247902321533013</v>
+        <v>0.002</v>
       </c>
       <c r="D67" t="n">
-        <v>0.00317999521960057</v>
+        <v>0.003</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="n">
-        <v>0.0571376296410756</v>
+        <v>0.057</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.0788305005941937</v>
+        <v>-0.079</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0118039597727975</v>
+        <v>0.012</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0176684548339781</v>
+        <v>0.018</v>
       </c>
       <c r="J67"/>
       <c r="K67" t="n">
-        <v>0.360648453099322</v>
+        <v>0.361</v>
       </c>
       <c r="L67" t="n">
-        <v>0.427476818854287</v>
+        <v>0.427</v>
       </c>
       <c r="M67" t="n">
-        <v>-0.207144971136344</v>
+        <v>-0.207</v>
       </c>
       <c r="N67"/>
       <c r="O67" t="n">
-        <v>-0.143766249505365</v>
+        <v>-0.144</v>
       </c>
       <c r="P67" t="n">
-        <v>0.35098388147789</v>
+        <v>0.351</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.434248079621336</v>
+        <v>0.434</v>
       </c>
       <c r="R67"/>
       <c r="S67" t="n">
-        <v>0.497581805743537</v>
+        <v>0.498</v>
       </c>
       <c r="T67" t="n">
-        <v>-7.96243262518353</v>
+        <v>-7.962</v>
       </c>
       <c r="U67" t="n">
-        <v>0.618870729667119</v>
+        <v>0.619</v>
       </c>
       <c r="V67" t="n">
-        <v>0.30897068670229</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="68">
@@ -4317,56 +4317,56 @@
         <v>33</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.0109500374132786</v>
+        <v>-0.011</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.0177047400853045</v>
+        <v>-0.018</v>
       </c>
       <c r="E68"/>
       <c r="F68" t="n">
-        <v>0.336529018468344</v>
+        <v>0.337</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.0187278151910564</v>
+        <v>-0.019</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0281600811914582</v>
+        <v>0.028</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0718572227310812</v>
+        <v>0.072</v>
       </c>
       <c r="J68"/>
       <c r="K68" t="n">
-        <v>0.601868940507409</v>
+        <v>0.602</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.0823514588910723</v>
+        <v>-0.082</v>
       </c>
       <c r="M68" t="n">
-        <v>-0.000792139362757518</v>
+        <v>-0.001</v>
       </c>
       <c r="N68"/>
       <c r="O68" t="n">
-        <v>-0.0260430633534007</v>
+        <v>-0.026</v>
       </c>
       <c r="P68" t="n">
-        <v>-0.513694664514404</v>
+        <v>-0.514</v>
       </c>
       <c r="Q68" t="n">
-        <v>-1.06862576367265</v>
+        <v>-1.069</v>
       </c>
       <c r="R68"/>
       <c r="S68" t="n">
-        <v>1.14097509942105</v>
+        <v>1.141</v>
       </c>
       <c r="T68" t="n">
-        <v>-0.874125416498522</v>
+        <v>-0.874</v>
       </c>
       <c r="U68" t="n">
-        <v>0.463490596520835</v>
+        <v>0.463</v>
       </c>
       <c r="V68" t="n">
-        <v>0.301265378839809</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="69">
@@ -4377,56 +4377,56 @@
         <v>34</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.00914199684170902</v>
+        <v>-0.009</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.00301440652019992</v>
+        <v>-0.003</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="n">
-        <v>0.394959049283029</v>
+        <v>0.395</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.0313086635083757</v>
+        <v>-0.031</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0122275343864743</v>
+        <v>0.012</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0222220487599452</v>
+        <v>0.022</v>
       </c>
       <c r="J69"/>
       <c r="K69" t="n">
-        <v>0.222084384596498</v>
+        <v>0.222</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0376330686098329</v>
+        <v>0.038</v>
       </c>
       <c r="M69" t="n">
-        <v>-0.0271470091337348</v>
+        <v>-0.027</v>
       </c>
       <c r="N69"/>
       <c r="O69" t="n">
-        <v>0.0866706424371601</v>
+        <v>0.087</v>
       </c>
       <c r="P69" t="n">
-        <v>-0.907938085235297</v>
+        <v>-0.908</v>
       </c>
       <c r="Q69" t="n">
-        <v>-0.267965654443357</v>
+        <v>-0.268</v>
       </c>
       <c r="R69"/>
       <c r="S69" t="n">
-        <v>2.04639047788696</v>
+        <v>2.046</v>
       </c>
       <c r="T69" t="n">
-        <v>-3.13953588878601</v>
+        <v>-3.14</v>
       </c>
       <c r="U69" t="n">
-        <v>0.60747211143559</v>
+        <v>0.607</v>
       </c>
       <c r="V69" t="n">
-        <v>0.260587781573709</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="70">
@@ -4437,56 +4437,56 @@
         <v>35</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0124348215057043</v>
+        <v>0.012</v>
       </c>
       <c r="D70" t="n">
-        <v>0.00679228565257283</v>
+        <v>0.007</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="n">
-        <v>-0.154701131876255</v>
+        <v>-0.155</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.0540651784942957</v>
+        <v>-0.054</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0150650512832481</v>
+        <v>0.015</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0312902614244465</v>
+        <v>0.031</v>
       </c>
       <c r="J70"/>
       <c r="K70" t="n">
-        <v>0.560423243242087</v>
+        <v>0.56</v>
       </c>
       <c r="L70" t="n">
-        <v>0.239726295235397</v>
+        <v>0.24</v>
       </c>
       <c r="M70" t="n">
-        <v>-0.00427117479210827</v>
+        <v>-0.004</v>
       </c>
       <c r="N70"/>
       <c r="O70" t="n">
-        <v>-0.0981484707713318</v>
+        <v>-0.098</v>
       </c>
       <c r="P70" t="n">
-        <v>2.2388786158252</v>
+        <v>2.239</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.574205880538264</v>
+        <v>0.574</v>
       </c>
       <c r="R70"/>
       <c r="S70" t="n">
-        <v>-1.05257496568705</v>
+        <v>-1.053</v>
       </c>
       <c r="T70" t="n">
-        <v>-8.01689802666847</v>
+        <v>-8.017</v>
       </c>
       <c r="U70" t="n">
-        <v>0.580994688177428</v>
+        <v>0.581</v>
       </c>
       <c r="V70" t="n">
-        <v>0.289451537748935</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="71">
@@ -4497,56 +4497,56 @@
         <v>36</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0128915184861427</v>
+        <v>0.013</v>
       </c>
       <c r="D71" t="n">
-        <v>0.00854038364202015</v>
+        <v>0.009</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="n">
-        <v>-0.110234541004885</v>
+        <v>-0.11</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.109608481513857</v>
+        <v>-0.11</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0225644106230655</v>
+        <v>0.023</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0252926031870569</v>
+        <v>0.025</v>
       </c>
       <c r="J71"/>
       <c r="K71" t="n">
-        <v>0.709312896747365</v>
+        <v>0.709</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0192125693255785</v>
+        <v>0.019</v>
       </c>
       <c r="M71" t="n">
-        <v>-0.175460942119392</v>
+        <v>-0.175</v>
       </c>
       <c r="N71"/>
       <c r="O71" t="n">
-        <v>-0.192625121676803</v>
+        <v>-0.193</v>
       </c>
       <c r="P71" t="n">
-        <v>1.97778101055237</v>
+        <v>1.978</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.978884399684297</v>
+        <v>0.979</v>
       </c>
       <c r="R71"/>
       <c r="S71" t="n">
-        <v>-0.922347976357747</v>
+        <v>-0.922</v>
       </c>
       <c r="T71" t="n">
-        <v>-15.1008817905816</v>
+        <v>-15.101</v>
       </c>
       <c r="U71" t="n">
-        <v>0.442334603067336</v>
+        <v>0.442</v>
       </c>
       <c r="V71" t="n">
-        <v>0.327938565635597</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="72">
@@ -4557,56 +4557,56 @@
         <v>37</v>
       </c>
       <c r="C72" t="n">
-        <v>0.015780122625058</v>
+        <v>0.016</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.000340605851790145</v>
+        <v>0</v>
       </c>
       <c r="E72"/>
       <c r="F72" t="n">
-        <v>-0.110621683021656</v>
+        <v>-0.111</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.195053210708275</v>
+        <v>-0.195</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0161313215639655</v>
+        <v>0.016</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0202794687620023</v>
+        <v>0.02</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="n">
-        <v>0.497371186451711</v>
+        <v>0.497</v>
       </c>
       <c r="L72" t="n">
-        <v>0.34634558895589</v>
+        <v>0.346</v>
       </c>
       <c r="M72" t="n">
-        <v>-0.00424709799577744</v>
+        <v>-0.004</v>
       </c>
       <c r="N72"/>
       <c r="O72" t="n">
-        <v>0.165613493276208</v>
+        <v>0.166</v>
       </c>
       <c r="P72" t="n">
-        <v>2.85210263807245</v>
+        <v>2.852</v>
       </c>
       <c r="Q72" t="n">
-        <v>-0.0354304907574016</v>
+        <v>-0.035</v>
       </c>
       <c r="R72"/>
       <c r="S72" t="n">
-        <v>-0.975918587719312</v>
+        <v>-0.976</v>
       </c>
       <c r="T72" t="n">
-        <v>-18.22188821625</v>
+        <v>-18.222</v>
       </c>
       <c r="U72" t="n">
-        <v>0.471116264517332</v>
+        <v>0.471</v>
       </c>
       <c r="V72" t="n">
-        <v>0.282120865433939</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="73">
@@ -4617,56 +4617,56 @@
         <v>38</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.00492702242201683</v>
+        <v>-0.005</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0120680589917538</v>
+        <v>0.012</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="n">
-        <v>0.104771093317239</v>
+        <v>0.105</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.257927022422017</v>
+        <v>-0.258</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0143640979291602</v>
+        <v>0.014</v>
       </c>
       <c r="I73" t="n">
-        <v>0.0268927585035021</v>
+        <v>0.027</v>
       </c>
       <c r="J73"/>
       <c r="K73" t="n">
-        <v>0.533530133854347</v>
+        <v>0.534</v>
       </c>
       <c r="L73" t="n">
-        <v>0.671667998736813</v>
+        <v>0.672</v>
       </c>
       <c r="M73" t="n">
-        <v>-0.0475527370038814</v>
+        <v>-0.048</v>
       </c>
       <c r="N73"/>
       <c r="O73" t="n">
-        <v>-0.195727689946555</v>
+        <v>-0.196</v>
       </c>
       <c r="P73" t="n">
-        <v>-0.846469676339665</v>
+        <v>-0.846</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.09462664909821</v>
+        <v>1.095</v>
       </c>
       <c r="R73"/>
       <c r="S73" t="n">
-        <v>1.15644902234931</v>
+        <v>1.156</v>
       </c>
       <c r="T73" t="n">
-        <v>-24.2172879737659</v>
+        <v>-24.217</v>
       </c>
       <c r="U73" t="n">
-        <v>0.52861825501763</v>
+        <v>0.529</v>
       </c>
       <c r="V73" t="n">
-        <v>0.317357557858676</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="74">
@@ -4677,56 +4677,56 @@
         <v>39</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.00263584734150373</v>
+        <v>-0.003</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.00777919521027569</v>
+        <v>-0.008</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="n">
-        <v>0.279842723039842</v>
+        <v>0.28</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.445635847341504</v>
+        <v>-0.446</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0197550928713785</v>
+        <v>0.02</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0434696748571913</v>
+        <v>0.043</v>
       </c>
       <c r="J74"/>
       <c r="K74" t="n">
-        <v>0.850816617685316</v>
+        <v>0.851</v>
       </c>
       <c r="L74" t="n">
-        <v>0.452355513969364</v>
+        <v>0.452</v>
       </c>
       <c r="M74" t="n">
-        <v>0.00631007698896567</v>
+        <v>0.006</v>
       </c>
       <c r="N74"/>
       <c r="O74" t="n">
-        <v>0.10043651219689</v>
+        <v>0.1</v>
       </c>
       <c r="P74" t="n">
-        <v>-0.31436199959303</v>
+        <v>-0.314</v>
       </c>
       <c r="Q74" t="n">
-        <v>-0.52120904106004</v>
+        <v>-0.521</v>
       </c>
       <c r="R74"/>
       <c r="S74" t="n">
-        <v>1.5481125879216</v>
+        <v>1.548</v>
       </c>
       <c r="T74" t="n">
-        <v>-40.8353289139961</v>
+        <v>-40.835</v>
       </c>
       <c r="U74" t="n">
-        <v>0.605450272086918</v>
+        <v>0.605</v>
       </c>
       <c r="V74" t="n">
-        <v>0.279608997791541</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="75">
@@ -4737,56 +4737,56 @@
         <v>40</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.00626303188645135</v>
+        <v>-0.006</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.0103982616346008</v>
+        <v>-0.01</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="n">
-        <v>0.28424604401223</v>
+        <v>0.284</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.475763031886451</v>
+        <v>-0.476</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0317161591627305</v>
+        <v>0.032</v>
       </c>
       <c r="I75" t="n">
-        <v>0.0494470958237598</v>
+        <v>0.049</v>
       </c>
       <c r="J75"/>
       <c r="K75" t="n">
-        <v>0.929946829738521</v>
+        <v>0.93</v>
       </c>
       <c r="L75" t="n">
-        <v>0.598508210614763</v>
+        <v>0.599</v>
       </c>
       <c r="M75" t="n">
-        <v>0.0349257566843067</v>
+        <v>0.035</v>
       </c>
       <c r="N75"/>
       <c r="O75" t="n">
-        <v>0.0511019980752722</v>
+        <v>0.051</v>
       </c>
       <c r="P75" t="n">
-        <v>-0.534947741316282</v>
+        <v>-0.535</v>
       </c>
       <c r="Q75" t="n">
-        <v>-0.532144043487832</v>
+        <v>-0.532</v>
       </c>
       <c r="R75"/>
       <c r="S75" t="n">
-        <v>1.27130241694405</v>
+        <v>1.271</v>
       </c>
       <c r="T75" t="n">
-        <v>-21.2566570796072</v>
+        <v>-21.257</v>
       </c>
       <c r="U75" t="n">
-        <v>0.516009716272171</v>
+        <v>0.516</v>
       </c>
       <c r="V75" t="n">
-        <v>0.283215363237899</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="76">
@@ -4797,56 +4797,56 @@
         <v>41</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.0159387257155269</v>
+        <v>-0.016</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0210723817054901</v>
+        <v>0.021</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="n">
-        <v>0.193927931461904</v>
+        <v>0.194</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.642438725715527</v>
+        <v>-0.642</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0213472074036325</v>
+        <v>0.021</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0451381276487581</v>
+        <v>0.045</v>
       </c>
       <c r="J76"/>
       <c r="K76" t="n">
-        <v>0.683172800131373</v>
+        <v>0.683</v>
       </c>
       <c r="L76" t="n">
-        <v>0.888586974975588</v>
+        <v>0.889</v>
       </c>
       <c r="M76" t="n">
-        <v>0.0688562672450709</v>
+        <v>0.069</v>
       </c>
       <c r="N76"/>
       <c r="O76" t="n">
-        <v>-0.246585566055426</v>
+        <v>-0.247</v>
       </c>
       <c r="P76" t="n">
-        <v>-2.15630052914913</v>
+        <v>-2.156</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.50839689033538</v>
+        <v>1.508</v>
       </c>
       <c r="R76"/>
       <c r="S76" t="n">
-        <v>1.58182636719016</v>
+        <v>1.582</v>
       </c>
       <c r="T76" t="n">
-        <v>-20.6508640355837</v>
+        <v>-20.651</v>
       </c>
       <c r="U76" t="n">
-        <v>0.476217775088619</v>
+        <v>0.476</v>
       </c>
       <c r="V76" t="n">
-        <v>0.362217252217267</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="77">
@@ -4857,56 +4857,56 @@
         <v>42</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0198470228657822</v>
+        <v>0.02</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.0155527625806988</v>
+        <v>-0.016</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="n">
-        <v>0.136431185579363</v>
+        <v>0.136</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.800319643800884</v>
+        <v>-0.8</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0216062943324237</v>
+        <v>0.022</v>
       </c>
       <c r="I77" t="n">
-        <v>0.0466154752689898</v>
+        <v>0.047</v>
       </c>
       <c r="J77"/>
       <c r="K77" t="n">
-        <v>0.714250294031815</v>
+        <v>0.714</v>
       </c>
       <c r="L77" t="n">
-        <v>0.780843951478729</v>
+        <v>0.781</v>
       </c>
       <c r="M77" t="n">
-        <v>0.0004429656773206</v>
+        <v>0</v>
       </c>
       <c r="N77"/>
       <c r="O77" t="n">
-        <v>-0.239921584217055</v>
+        <v>-0.24</v>
       </c>
       <c r="P77" t="n">
-        <v>2.3947236958819</v>
+        <v>2.395</v>
       </c>
       <c r="Q77" t="n">
-        <v>-1.00888969523237</v>
+        <v>-1.009</v>
       </c>
       <c r="R77"/>
       <c r="S77" t="n">
-        <v>0.807629506247448</v>
+        <v>0.808</v>
       </c>
       <c r="T77" t="n">
-        <v>-28.5865225847457</v>
+        <v>-28.587</v>
       </c>
       <c r="U77" t="n">
-        <v>0.58006955925359</v>
+        <v>0.58</v>
       </c>
       <c r="V77" t="n">
-        <v>0.298466011422906</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="78">
@@ -4917,56 +4917,56 @@
         <v>43</v>
       </c>
       <c r="C78" t="n">
-        <v>0.00722103215282001</v>
+        <v>0.007</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.0112373615693251</v>
+        <v>-0.011</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="n">
-        <v>0.136283590868633</v>
+        <v>0.136</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.54527896784718</v>
+        <v>-0.545</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0338700791578593</v>
+        <v>0.034</v>
       </c>
       <c r="I78" t="n">
-        <v>0.031475758237078</v>
+        <v>0.031</v>
       </c>
       <c r="J78"/>
       <c r="K78" t="n">
-        <v>0.71770402919399</v>
+        <v>0.718</v>
       </c>
       <c r="L78" t="n">
-        <v>0.493247259999225</v>
+        <v>0.493</v>
       </c>
       <c r="M78" t="n">
-        <v>-0.105853406229569</v>
+        <v>-0.106</v>
       </c>
       <c r="N78"/>
       <c r="O78" t="n">
-        <v>-0.122999897759241</v>
+        <v>-0.123</v>
       </c>
       <c r="P78" t="n">
-        <v>0.786974145658367</v>
+        <v>0.787</v>
       </c>
       <c r="Q78" t="n">
-        <v>-0.951201396659782</v>
+        <v>-0.951</v>
       </c>
       <c r="R78"/>
       <c r="S78" t="n">
-        <v>0.864609636109179</v>
+        <v>0.865</v>
       </c>
       <c r="T78" t="n">
-        <v>-38.1320777334198</v>
+        <v>-38.132</v>
       </c>
       <c r="U78" t="n">
-        <v>0.475512052469382</v>
+        <v>0.476</v>
       </c>
       <c r="V78" t="n">
-        <v>0.319035309468679</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="79">
@@ -4977,56 +4977,56 @@
         <v>44</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.00509719849406348</v>
+        <v>-0.005</v>
       </c>
       <c r="D79" t="n">
-        <v>0.00682814555909931</v>
+        <v>0.007</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="n">
-        <v>0.175716500952141</v>
+        <v>0.176</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.356097198494063</v>
+        <v>-0.356</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0127398675654081</v>
+        <v>0.013</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0191226713911688</v>
+        <v>0.019</v>
       </c>
       <c r="J79"/>
       <c r="K79" t="n">
-        <v>0.192958601530875</v>
+        <v>0.193</v>
       </c>
       <c r="L79" t="n">
-        <v>0.759157477078532</v>
+        <v>0.759</v>
       </c>
       <c r="M79" t="n">
-        <v>-0.137088701889563</v>
+        <v>-0.137</v>
       </c>
       <c r="N79"/>
       <c r="O79" t="n">
-        <v>0.238442185608506</v>
+        <v>0.238</v>
       </c>
       <c r="P79" t="n">
-        <v>-0.476642085691238</v>
+        <v>-0.477</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.931640818528664</v>
+        <v>0.932</v>
       </c>
       <c r="R79"/>
       <c r="S79" t="n">
-        <v>1.31054905502836</v>
+        <v>1.311</v>
       </c>
       <c r="T79" t="n">
-        <v>-20.4403310361257</v>
+        <v>-20.44</v>
       </c>
       <c r="U79" t="n">
-        <v>0.506375118313073</v>
+        <v>0.506</v>
       </c>
       <c r="V79" t="n">
-        <v>0.297065894578946</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="80">
@@ -5037,56 +5037,56 @@
         <v>45</v>
       </c>
       <c r="C80" t="n">
-        <v>0.011716919648448</v>
+        <v>0.012</v>
       </c>
       <c r="D80" t="n">
-        <v>0.000717353215771985</v>
+        <v>0.001</v>
       </c>
       <c r="E80"/>
       <c r="F80" t="n">
-        <v>0.00768568845918003</v>
+        <v>0.008</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.409616413684885</v>
+        <v>-0.41</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0176349906856675</v>
+        <v>0.018</v>
       </c>
       <c r="I80" t="n">
-        <v>0.0316917447632887</v>
+        <v>0.032</v>
       </c>
       <c r="J80"/>
       <c r="K80" t="n">
-        <v>0.424950275253001</v>
+        <v>0.425</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0335890205532716</v>
+        <v>0.034</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0932255933684067</v>
+        <v>0.093</v>
       </c>
       <c r="N80"/>
       <c r="O80" t="n">
-        <v>0.199867073045189</v>
+        <v>0.2</v>
       </c>
       <c r="P80" t="n">
-        <v>1.01279695228822</v>
+        <v>1.013</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.0624430128525071</v>
+        <v>0.062</v>
       </c>
       <c r="R80"/>
       <c r="S80" t="n">
-        <v>0.0572195259459697</v>
+        <v>0.057</v>
       </c>
       <c r="T80" t="n">
-        <v>-36.2220041439941</v>
+        <v>-36.222</v>
       </c>
       <c r="U80" t="n">
-        <v>0.584718807165598</v>
+        <v>0.585</v>
       </c>
       <c r="V80" t="n">
-        <v>0.235864942532142</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="81">
@@ -5097,56 +5097,56 @@
         <v>46</v>
       </c>
       <c r="C81" t="n">
-        <v>0.00215571406544561</v>
+        <v>0.002</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.00167704049775919</v>
+        <v>-0.002</v>
       </c>
       <c r="E81"/>
       <c r="F81" t="n">
-        <v>0.128019958727214</v>
+        <v>0.128</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.173177619267888</v>
+        <v>-0.173</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0180843332258959</v>
+        <v>0.018</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0278062416020082</v>
+        <v>0.028</v>
       </c>
       <c r="J81"/>
       <c r="K81" t="n">
-        <v>0.406320848564036</v>
+        <v>0.406</v>
       </c>
       <c r="L81" t="n">
-        <v>0.516353240029096</v>
+        <v>0.516</v>
       </c>
       <c r="M81" t="n">
-        <v>-0.0727004184901584</v>
+        <v>-0.073</v>
       </c>
       <c r="N81"/>
       <c r="O81" t="n">
-        <v>-0.102240309488182</v>
+        <v>-0.102</v>
       </c>
       <c r="P81" t="n">
-        <v>0.211736284779403</v>
+        <v>0.212</v>
       </c>
       <c r="Q81" t="n">
-        <v>-0.166234984142321</v>
+        <v>-0.166</v>
       </c>
       <c r="R81"/>
       <c r="S81" t="n">
-        <v>1.10100090425791</v>
+        <v>1.101</v>
       </c>
       <c r="T81" t="n">
-        <v>-9.60483535803416</v>
+        <v>-9.605</v>
       </c>
       <c r="U81" t="n">
-        <v>0.632878864638601</v>
+        <v>0.633</v>
       </c>
       <c r="V81" t="n">
-        <v>0.281886919561792</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="82">
@@ -5157,56 +5157,56 @@
         <v>47</v>
       </c>
       <c r="C82" t="n">
-        <v>0.00712977908337821</v>
+        <v>0.007</v>
       </c>
       <c r="D82" t="n">
-        <v>0.00876559301269354</v>
+        <v>0.009</v>
       </c>
       <c r="E82"/>
       <c r="F82" t="n">
-        <v>-0.114007708858941</v>
+        <v>-0.114</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.177036887583288</v>
+        <v>-0.177</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0313982339314829</v>
+        <v>0.031</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0432618237116732</v>
+        <v>0.043</v>
       </c>
       <c r="J82"/>
       <c r="K82" t="n">
-        <v>0.841696166642873</v>
+        <v>0.842</v>
       </c>
       <c r="L82" t="n">
-        <v>0.717244735977242</v>
+        <v>0.717</v>
       </c>
       <c r="M82" t="n">
-        <v>0.000604230430717725</v>
+        <v>0.001</v>
       </c>
       <c r="N82"/>
       <c r="O82" t="n">
-        <v>0.318624592190697</v>
+        <v>0.319</v>
       </c>
       <c r="P82" t="n">
-        <v>0.436316468192822</v>
+        <v>0.436</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.90424404979148</v>
+        <v>0.904</v>
       </c>
       <c r="R82"/>
       <c r="S82" t="n">
-        <v>-0.427430370723697</v>
+        <v>-0.427</v>
       </c>
       <c r="T82" t="n">
-        <v>-6.91297337797562</v>
+        <v>-6.913</v>
       </c>
       <c r="U82" t="n">
-        <v>0.558363160656481</v>
+        <v>0.558</v>
       </c>
       <c r="V82" t="n">
-        <v>0.313682544986517</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="83">
@@ -5217,56 +5217,56 @@
         <v>48</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0184355564735432</v>
+        <v>0.018</v>
       </c>
       <c r="D83" t="n">
-        <v>0.000573831585224572</v>
+        <v>0.001</v>
       </c>
       <c r="E83"/>
       <c r="F83" t="n">
-        <v>-0.176529924473437</v>
+        <v>-0.177</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0166022231402099</v>
+        <v>0.017</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0111410265585178</v>
+        <v>0.011</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0192019800954929</v>
+        <v>0.019</v>
       </c>
       <c r="J83"/>
       <c r="K83" t="n">
-        <v>0.33020891694164</v>
+        <v>0.33</v>
       </c>
       <c r="L83" t="n">
-        <v>-0.162102679981836</v>
+        <v>-0.162</v>
       </c>
       <c r="M83" t="n">
-        <v>-0.0335352006998569</v>
+        <v>-0.034</v>
       </c>
       <c r="N83"/>
       <c r="O83" t="n">
-        <v>-0.151999647002959</v>
+        <v>-0.152</v>
       </c>
       <c r="P83" t="n">
-        <v>2.76545477009701</v>
+        <v>2.765</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.0639786438994604</v>
+        <v>0.064</v>
       </c>
       <c r="R83"/>
       <c r="S83" t="n">
-        <v>-1.421820708761</v>
+        <v>-1.422</v>
       </c>
       <c r="T83" t="n">
-        <v>2.475278898985</v>
+        <v>2.475</v>
       </c>
       <c r="U83" t="n">
-        <v>0.629475071026209</v>
+        <v>0.629</v>
       </c>
       <c r="V83" t="n">
-        <v>0.302087681099947</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="84">
@@ -5277,56 +5277,56 @@
         <v>49</v>
       </c>
       <c r="C84" t="n">
-        <v>0.00680672455877139</v>
+        <v>0.007</v>
       </c>
       <c r="D84" t="n">
-        <v>0.00377701513203607</v>
+        <v>0.004</v>
       </c>
       <c r="E84"/>
       <c r="F84" t="n">
-        <v>0.000359817441943348</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.083026608774562</v>
+        <v>-0.083</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0119034538635039</v>
+        <v>0.012</v>
       </c>
       <c r="I84" t="n">
-        <v>0.0168036880615208</v>
+        <v>0.017</v>
       </c>
       <c r="J84"/>
       <c r="K84" t="n">
-        <v>0.353752594768647</v>
+        <v>0.354</v>
       </c>
       <c r="L84" t="n">
-        <v>0.328168919159093</v>
+        <v>0.328</v>
       </c>
       <c r="M84" t="n">
-        <v>-0.120412122555993</v>
+        <v>-0.12</v>
       </c>
       <c r="N84"/>
       <c r="O84" t="n">
-        <v>-0.126229663862617</v>
+        <v>-0.126</v>
       </c>
       <c r="P84" t="n">
-        <v>0.842178952803057</v>
+        <v>0.842</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.431644022173285</v>
+        <v>0.432</v>
       </c>
       <c r="R84"/>
       <c r="S84" t="n">
-        <v>0.00281887487970414</v>
+        <v>0.003</v>
       </c>
       <c r="T84" t="n">
-        <v>-8.30516927240799</v>
+        <v>-8.305</v>
       </c>
       <c r="U84" t="n">
-        <v>0.61190194798777</v>
+        <v>0.612</v>
       </c>
       <c r="V84" t="n">
-        <v>0.310480701660205</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="85">
@@ -5337,56 +5337,56 @@
         <v>50</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.00834023014327303</v>
+        <v>-0.008</v>
       </c>
       <c r="D85" t="n">
-        <v>0.00168744543851181</v>
+        <v>0.002</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="n">
-        <v>0.199082160138906</v>
+        <v>0.199</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.068340230143273</v>
+        <v>-0.068</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0115552245460315</v>
+        <v>0.012</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0198303717651216</v>
+        <v>0.02</v>
       </c>
       <c r="J85"/>
       <c r="K85" t="n">
-        <v>0.377888098926007</v>
+        <v>0.378</v>
       </c>
       <c r="L85" t="n">
-        <v>0.571348916821489</v>
+        <v>0.571</v>
       </c>
       <c r="M85" t="n">
-        <v>-0.402925702977406</v>
+        <v>-0.403</v>
       </c>
       <c r="N85"/>
       <c r="O85" t="n">
-        <v>-0.221900499959883</v>
+        <v>-0.222</v>
       </c>
       <c r="P85" t="n">
-        <v>-0.583864373538549</v>
+        <v>-0.584</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.123678197313112</v>
+        <v>0.124</v>
       </c>
       <c r="R85"/>
       <c r="S85" t="n">
-        <v>0.807193196029305</v>
+        <v>0.807</v>
       </c>
       <c r="T85" t="n">
-        <v>-2.81264242318264</v>
+        <v>-2.813</v>
       </c>
       <c r="U85" t="n">
-        <v>0.636292683865492</v>
+        <v>0.636</v>
       </c>
       <c r="V85" t="n">
-        <v>0.311079701245823</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="86">
@@ -5397,64 +5397,64 @@
         <v>23</v>
       </c>
       <c r="C86" t="n">
-        <v>0.00290719495714754</v>
+        <v>0.003</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.00117350668976583</v>
+        <v>-0.001</v>
       </c>
       <c r="E86" t="n">
-        <v>0.000656214826472665</v>
+        <v>0.001</v>
       </c>
       <c r="F86" t="n">
-        <v>0.104558577409378</v>
+        <v>0.105</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.272291668679216</v>
+        <v>-0.272</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0507654368973447</v>
+        <v>0.051</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0717066785566166</v>
+        <v>0.072</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0411842914106359</v>
+        <v>0.041</v>
       </c>
       <c r="K86" t="n">
-        <v>0.641178455611897</v>
+        <v>0.641</v>
       </c>
       <c r="L86" t="n">
-        <v>0.911240213380116</v>
+        <v>0.911</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0056992845238182</v>
+        <v>0.006</v>
       </c>
       <c r="N86" t="n">
-        <v>-0.00390623568681527</v>
+        <v>-0.004</v>
       </c>
       <c r="O86" t="n">
-        <v>0.029962548701807</v>
+        <v>0.03</v>
       </c>
       <c r="P86" t="n">
-        <v>1.16536569079586</v>
+        <v>1.165</v>
       </c>
       <c r="Q86" t="n">
-        <v>-0.214181419014934</v>
+        <v>-0.214</v>
       </c>
       <c r="R86" t="n">
-        <v>0.214866029765051</v>
+        <v>0.215</v>
       </c>
       <c r="S86" t="n">
-        <v>3.0059132770302</v>
+        <v>3.006</v>
       </c>
       <c r="T86" t="n">
-        <v>-33.5609111421112</v>
+        <v>-33.561</v>
       </c>
       <c r="U86" t="n">
-        <v>0.585799496610564</v>
+        <v>0.586</v>
       </c>
       <c r="V86" t="n">
-        <v>0.296321333113771</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="87">
@@ -5465,64 +5465,64 @@
         <v>24</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.0087341413702516</v>
+        <v>-0.009</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.0138106211116426</v>
+        <v>-0.014</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00169376363208369</v>
+        <v>0.002</v>
       </c>
       <c r="F87" t="n">
-        <v>0.358230310571139</v>
+        <v>0.358</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0230523231884334</v>
+        <v>-0.023</v>
       </c>
       <c r="H87" t="n">
-        <v>0.067000724877632</v>
+        <v>0.067</v>
       </c>
       <c r="I87" t="n">
-        <v>0.11826394978398</v>
+        <v>0.118</v>
       </c>
       <c r="J87" t="n">
-        <v>0.064889899483135</v>
+        <v>0.065</v>
       </c>
       <c r="K87" t="n">
-        <v>0.491450517487488</v>
+        <v>0.491</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.0049351215051909</v>
+        <v>-0.005</v>
       </c>
       <c r="M87" t="n">
-        <v>-0.0743406359041672</v>
+        <v>-0.074</v>
       </c>
       <c r="N87" t="n">
-        <v>-0.101604299153994</v>
+        <v>-0.102</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0384637132878416</v>
+        <v>0.038</v>
       </c>
       <c r="P87" t="n">
-        <v>-1.17046164372049</v>
+        <v>-1.17</v>
       </c>
       <c r="Q87" t="n">
-        <v>-0.484928154969784</v>
+        <v>-0.485</v>
       </c>
       <c r="R87" t="n">
-        <v>0.11427062044133</v>
+        <v>0.114</v>
       </c>
       <c r="S87" t="n">
-        <v>2.50973077232208</v>
+        <v>2.51</v>
       </c>
       <c r="T87" t="n">
-        <v>-3.10010664572388</v>
+        <v>-3.1</v>
       </c>
       <c r="U87" t="n">
-        <v>0.557942544720496</v>
+        <v>0.558</v>
       </c>
       <c r="V87" t="n">
-        <v>0.288202842497729</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="88">
@@ -5533,64 +5533,64 @@
         <v>25</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.000527465350694028</v>
+        <v>-0.001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0196124064653386</v>
+        <v>0.02</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.00866808829971396</v>
+        <v>-0.009</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0243121913576317</v>
+        <v>0.024</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.095027465350694</v>
+        <v>-0.095</v>
       </c>
       <c r="H88" t="n">
-        <v>0.048304278177616</v>
+        <v>0.048</v>
       </c>
       <c r="I88" t="n">
-        <v>0.0560927502742139</v>
+        <v>0.056</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0309847936094076</v>
+        <v>0.031</v>
       </c>
       <c r="K88" t="n">
-        <v>0.785076138458452</v>
+        <v>0.785</v>
       </c>
       <c r="L88" t="n">
-        <v>0.300881676100711</v>
+        <v>0.301</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0209206877724765</v>
+        <v>0.021</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0363791695274272</v>
+        <v>0.036</v>
       </c>
       <c r="O88" t="n">
-        <v>-0.0709472390162052</v>
+        <v>-0.071</v>
       </c>
       <c r="P88" t="n">
-        <v>-0.089219912584282</v>
+        <v>-0.089</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.90259854467652</v>
+        <v>1.903</v>
       </c>
       <c r="R88" t="n">
-        <v>-2.03986738910455</v>
+        <v>-2.04</v>
       </c>
       <c r="S88" t="n">
-        <v>0.282039109390858</v>
+        <v>0.282</v>
       </c>
       <c r="T88" t="n">
-        <v>-13.247542059373</v>
+        <v>-13.248</v>
       </c>
       <c r="U88" t="n">
-        <v>0.534656614112664</v>
+        <v>0.535</v>
       </c>
       <c r="V88" t="n">
-        <v>0.311820430403767</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="89">
@@ -5601,64 +5601,64 @@
         <v>26</v>
       </c>
       <c r="C89" t="n">
-        <v>0.00429311271497378</v>
+        <v>0.004</v>
       </c>
       <c r="D89" t="n">
-        <v>0.00798062351348579</v>
+        <v>0.008</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.000934302052759315</v>
+        <v>-0.001</v>
       </c>
       <c r="F89" t="n">
-        <v>0.000186020679068806</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.227623553951693</v>
+        <v>-0.228</v>
       </c>
       <c r="H89" t="n">
-        <v>0.048630153904523</v>
+        <v>0.049</v>
       </c>
       <c r="I89" t="n">
-        <v>0.0790420131161407</v>
+        <v>0.079</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0396694238723242</v>
+        <v>0.04</v>
       </c>
       <c r="K89" t="n">
-        <v>0.540406601496498</v>
+        <v>0.54</v>
       </c>
       <c r="L89" t="n">
-        <v>0.488005860783022</v>
+        <v>0.488</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0284411258925919</v>
+        <v>0.028</v>
       </c>
       <c r="N89" t="n">
-        <v>-0.0305829462191681</v>
+        <v>-0.031</v>
       </c>
       <c r="O89" t="n">
-        <v>0.00581581666488809</v>
+        <v>0.006</v>
       </c>
       <c r="P89" t="n">
-        <v>0.672812937226405</v>
+        <v>0.673</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.625141954853345</v>
+        <v>0.625</v>
       </c>
       <c r="R89" t="n">
-        <v>-0.149680197909117</v>
+        <v>-0.15</v>
       </c>
       <c r="S89" t="n">
-        <v>0.0027417377886133</v>
+        <v>0.003</v>
       </c>
       <c r="T89" t="n">
-        <v>-24.7907977899322</v>
+        <v>-24.791</v>
       </c>
       <c r="U89" t="n">
-        <v>0.528956460141907</v>
+        <v>0.529</v>
       </c>
       <c r="V89" t="n">
-        <v>0.2938925194199</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="90">
@@ -5669,64 +5669,64 @@
         <v>27</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0000515663412258002</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.0176925374696155</v>
+        <v>-0.018</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00516374631524883</v>
+        <v>0.005</v>
       </c>
       <c r="F90" t="n">
-        <v>0.248453277057866</v>
+        <v>0.248</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.456198433658774</v>
+        <v>-0.456</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0640668081838965</v>
+        <v>0.064</v>
       </c>
       <c r="I90" t="n">
-        <v>0.0852177318628315</v>
+        <v>0.085</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0521085580353195</v>
+        <v>0.052</v>
       </c>
       <c r="K90" t="n">
-        <v>1.01318461612879</v>
+        <v>1.013</v>
       </c>
       <c r="L90" t="n">
-        <v>0.554360780076276</v>
+        <v>0.554</v>
       </c>
       <c r="M90" t="n">
-        <v>-0.014073019772704</v>
+        <v>-0.014</v>
       </c>
       <c r="N90" t="n">
-        <v>-0.166971876254287</v>
+        <v>-0.167</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0691485960050577</v>
+        <v>0.069</v>
       </c>
       <c r="P90" t="n">
-        <v>0.00565749656767922</v>
+        <v>0.006</v>
       </c>
       <c r="Q90" t="n">
-        <v>-0.97109861249123</v>
+        <v>-0.971</v>
       </c>
       <c r="R90" t="n">
-        <v>0.471675646263569</v>
+        <v>0.472</v>
       </c>
       <c r="S90" t="n">
-        <v>1.88460946417117</v>
+        <v>1.885</v>
       </c>
       <c r="T90" t="n">
-        <v>-32.5502543014604</v>
+        <v>-32.55</v>
       </c>
       <c r="U90" t="n">
-        <v>0.601847708272451</v>
+        <v>0.602</v>
       </c>
       <c r="V90" t="n">
-        <v>0.26611446438933</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="91">
@@ -5737,64 +5737,64 @@
         <v>28</v>
       </c>
       <c r="C91" t="n">
-        <v>0.00615099867784254</v>
+        <v>0.006</v>
       </c>
       <c r="D91" t="n">
-        <v>0.000519512349881763</v>
+        <v>0.001</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0035704818996825</v>
+        <v>0.004</v>
       </c>
       <c r="F91" t="n">
-        <v>0.102096615293595</v>
+        <v>0.102</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.717182334655491</v>
+        <v>-0.717</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0595841055854298</v>
+        <v>0.06</v>
       </c>
       <c r="I91" t="n">
-        <v>0.0765153413353552</v>
+        <v>0.077</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0446264215193397</v>
+        <v>0.045</v>
       </c>
       <c r="K91" t="n">
-        <v>0.807897912613733</v>
+        <v>0.808</v>
       </c>
       <c r="L91" t="n">
-        <v>0.819286028471262</v>
+        <v>0.819</v>
       </c>
       <c r="M91" t="n">
-        <v>0.150871294359982</v>
+        <v>0.151</v>
       </c>
       <c r="N91" t="n">
-        <v>0.15818248953765</v>
+        <v>0.158</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.0227074944333018</v>
+        <v>-0.023</v>
       </c>
       <c r="P91" t="n">
-        <v>0.558286492167699</v>
+        <v>0.558</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.0293722522735943</v>
+        <v>0.029</v>
       </c>
       <c r="R91" t="n">
-        <v>0.415739616993629</v>
+        <v>0.416</v>
       </c>
       <c r="S91" t="n">
-        <v>0.91580840159246</v>
+        <v>0.916</v>
       </c>
       <c r="T91" t="n">
-        <v>-33.3463309000994</v>
+        <v>-33.346</v>
       </c>
       <c r="U91" t="n">
-        <v>0.579835056240398</v>
+        <v>0.58</v>
       </c>
       <c r="V91" t="n">
-        <v>0.308867864005233</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="92">
@@ -5805,64 +5805,64 @@
         <v>29</v>
       </c>
       <c r="C92" t="n">
-        <v>0.00425184204833196</v>
+        <v>0.004</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.0109767769422379</v>
+        <v>-0.011</v>
       </c>
       <c r="E92" t="n">
-        <v>0.00506293567497451</v>
+        <v>0.005</v>
       </c>
       <c r="F92" t="n">
-        <v>0.160887316994201</v>
+        <v>0.161</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.447498157951668</v>
+        <v>-0.447</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0570517311182472</v>
+        <v>0.057</v>
       </c>
       <c r="I92" t="n">
-        <v>0.0796947865881529</v>
+        <v>0.08</v>
       </c>
       <c r="J92" t="n">
-        <v>0.049116820251069</v>
+        <v>0.049</v>
       </c>
       <c r="K92" t="n">
-        <v>0.561842658180777</v>
+        <v>0.562</v>
       </c>
       <c r="L92" t="n">
-        <v>0.691413310073689</v>
+        <v>0.691</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0965140849187182</v>
+        <v>0.097</v>
       </c>
       <c r="N92" t="n">
-        <v>0.162038751331831</v>
+        <v>0.162</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.0529688217293246</v>
+        <v>-0.053</v>
       </c>
       <c r="P92" t="n">
-        <v>0.483095478525165</v>
+        <v>0.483</v>
       </c>
       <c r="Q92" t="n">
-        <v>-1.01975583157501</v>
+        <v>-1.02</v>
       </c>
       <c r="R92" t="n">
-        <v>0.743802269191006</v>
+        <v>0.744</v>
       </c>
       <c r="S92" t="n">
-        <v>1.44083710790928</v>
+        <v>1.441</v>
       </c>
       <c r="T92" t="n">
-        <v>-29.156790131663</v>
+        <v>-29.157</v>
       </c>
       <c r="U92" t="n">
-        <v>0.519449774819538</v>
+        <v>0.519</v>
       </c>
       <c r="V92" t="n">
-        <v>0.292719172874295</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="93">
@@ -5873,64 +5873,64 @@
         <v>30</v>
       </c>
       <c r="C93" t="n">
-        <v>0.00665704789450984</v>
+        <v>0.007</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.00303741673864648</v>
+        <v>-0.003</v>
       </c>
       <c r="E93" t="n">
-        <v>0.00123303891865579</v>
+        <v>0.001</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0851725998653177</v>
+        <v>0.085</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.291676285438824</v>
+        <v>-0.292</v>
       </c>
       <c r="H93" t="n">
-        <v>0.0432719582469098</v>
+        <v>0.043</v>
       </c>
       <c r="I93" t="n">
-        <v>0.0682973556868246</v>
+        <v>0.068</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0408458133481302</v>
+        <v>0.041</v>
       </c>
       <c r="K93" t="n">
-        <v>0.453966426915023</v>
+        <v>0.454</v>
       </c>
       <c r="L93" t="n">
-        <v>0.869599026126382</v>
+        <v>0.87</v>
       </c>
       <c r="M93" t="n">
-        <v>-0.0143752021530683</v>
+        <v>-0.014</v>
       </c>
       <c r="N93" t="n">
-        <v>0.050214825851713</v>
+        <v>0.05</v>
       </c>
       <c r="O93" t="n">
-        <v>0.063129296615038</v>
+        <v>0.063</v>
       </c>
       <c r="P93" t="n">
-        <v>1.49619183876551</v>
+        <v>1.496</v>
       </c>
       <c r="Q93" t="n">
-        <v>-0.263986589947034</v>
+        <v>-0.264</v>
       </c>
       <c r="R93" t="n">
-        <v>0.136080513714815</v>
+        <v>0.136</v>
       </c>
       <c r="S93" t="n">
-        <v>1.29620961017227</v>
+        <v>1.296</v>
       </c>
       <c r="T93" t="n">
-        <v>-21.7220547603835</v>
+        <v>-21.722</v>
       </c>
       <c r="U93" t="n">
-        <v>0.654086492936711</v>
+        <v>0.654</v>
       </c>
       <c r="V93" t="n">
-        <v>0.258539026907516</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="94">
@@ -5941,64 +5941,64 @@
         <v>31</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0108280081027045</v>
+        <v>0.011</v>
       </c>
       <c r="D94" t="n">
-        <v>0.006091946012409</v>
+        <v>0.006</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.00237104606161167</v>
+        <v>-0.002</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.0960962957341794</v>
+        <v>-0.096</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.0821719918972955</v>
+        <v>-0.082</v>
       </c>
       <c r="H94" t="n">
-        <v>0.0390266445087532</v>
+        <v>0.039</v>
       </c>
       <c r="I94" t="n">
-        <v>0.0431160805347602</v>
+        <v>0.043</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0263733438643615</v>
+        <v>0.026</v>
       </c>
       <c r="K94" t="n">
-        <v>0.678859506347637</v>
+        <v>0.679</v>
       </c>
       <c r="L94" t="n">
-        <v>0.864674713859238</v>
+        <v>0.865</v>
       </c>
       <c r="M94" t="n">
-        <v>0.158101682701882</v>
+        <v>0.158</v>
       </c>
       <c r="N94" t="n">
-        <v>0.314841478093788</v>
+        <v>0.315</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0734543016704639</v>
+        <v>0.073</v>
       </c>
       <c r="P94" t="n">
-        <v>2.07172810498272</v>
+        <v>2.072</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.485918445786976</v>
+        <v>0.486</v>
       </c>
       <c r="R94" t="n">
-        <v>-0.291046176686625</v>
+        <v>-0.291</v>
       </c>
       <c r="S94" t="n">
-        <v>-1.14642911413357</v>
+        <v>-1.146</v>
       </c>
       <c r="T94" t="n">
-        <v>-5.5954269829626</v>
+        <v>-5.595</v>
       </c>
       <c r="U94" t="n">
-        <v>0.62526442626652</v>
+        <v>0.625</v>
       </c>
       <c r="V94" t="n">
-        <v>0.312209731672632</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="95">
@@ -6009,64 +6009,64 @@
         <v>32</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0049796581446867</v>
+        <v>0.005</v>
       </c>
       <c r="D95" t="n">
-        <v>0.00338152451750326</v>
+        <v>0.003</v>
       </c>
       <c r="E95" t="n">
-        <v>0.00122112011884387</v>
+        <v>0.001</v>
       </c>
       <c r="F95" t="n">
-        <v>0.00150059151538803</v>
+        <v>0.002</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0763298656648371</v>
+        <v>-0.076</v>
       </c>
       <c r="H95" t="n">
-        <v>0.0187133822940901</v>
+        <v>0.019</v>
       </c>
       <c r="I95" t="n">
-        <v>0.018503381625099</v>
+        <v>0.019</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0104538578317087</v>
+        <v>0.01</v>
       </c>
       <c r="K95" t="n">
-        <v>0.372201400010785</v>
+        <v>0.372</v>
       </c>
       <c r="L95" t="n">
-        <v>0.69511463460736</v>
+        <v>0.695</v>
       </c>
       <c r="M95" t="n">
-        <v>-0.177730695384372</v>
+        <v>-0.178</v>
       </c>
       <c r="N95" t="n">
-        <v>-0.0960458432838475</v>
+        <v>-0.096</v>
       </c>
       <c r="O95" t="n">
-        <v>-0.058083190518675</v>
+        <v>-0.058</v>
       </c>
       <c r="P95" t="n">
-        <v>1.04069601374004</v>
+        <v>1.041</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.424995093459631</v>
+        <v>0.425</v>
       </c>
       <c r="R95" t="n">
-        <v>0.22059039921399</v>
+        <v>0.221</v>
       </c>
       <c r="S95" t="n">
-        <v>0.0200843724272254</v>
+        <v>0.02</v>
       </c>
       <c r="T95" t="n">
-        <v>-7.61257086922944</v>
+        <v>-7.613</v>
       </c>
       <c r="U95" t="n">
-        <v>0.71028891170032</v>
+        <v>0.71</v>
       </c>
       <c r="V95" t="n">
-        <v>0.289578390301193</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="96">
@@ -6077,64 +6077,64 @@
         <v>33</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.00517911515875266</v>
+        <v>-0.005</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.0281597084101097</v>
+        <v>-0.028</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0062200219274557</v>
+        <v>0.006</v>
       </c>
       <c r="F96" t="n">
-        <v>0.314134884977545</v>
+        <v>0.314</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.0129568929365304</v>
+        <v>-0.013</v>
       </c>
       <c r="H96" t="n">
-        <v>0.0890644264659338</v>
+        <v>0.089</v>
       </c>
       <c r="I96" t="n">
-        <v>0.169937589183263</v>
+        <v>0.17</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0912832813686922</v>
+        <v>0.091</v>
       </c>
       <c r="K96" t="n">
-        <v>0.629711476484183</v>
+        <v>0.63</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.127071970964275</v>
+        <v>-0.127</v>
       </c>
       <c r="M96" t="n">
-        <v>-0.0742371528447964</v>
+        <v>-0.074</v>
       </c>
       <c r="N96" t="n">
-        <v>-0.10316015312717</v>
+        <v>-0.103</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.017308438182455</v>
+        <v>-0.017</v>
       </c>
       <c r="P96" t="n">
-        <v>-0.456220778672279</v>
+        <v>-0.456</v>
       </c>
       <c r="Q96" t="n">
-        <v>-0.554907381954311</v>
+        <v>-0.555</v>
       </c>
       <c r="R96" t="n">
-        <v>0.235242512650112</v>
+        <v>0.235</v>
       </c>
       <c r="S96" t="n">
-        <v>1.45097098487059</v>
+        <v>1.451</v>
       </c>
       <c r="T96" t="n">
-        <v>-1.15436669856317</v>
+        <v>-1.154</v>
       </c>
       <c r="U96" t="n">
-        <v>0.496995330920327</v>
+        <v>0.497</v>
       </c>
       <c r="V96" t="n">
-        <v>0.296439740156418</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="97">
@@ -6145,64 +6145,64 @@
         <v>34</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.0130001728240503</v>
+        <v>-0.013</v>
       </c>
       <c r="D97" t="n">
-        <v>0.00340828364651798</v>
+        <v>0.003</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.00373774632236272</v>
+        <v>-0.004</v>
       </c>
       <c r="F97" t="n">
-        <v>0.411144821283452</v>
+        <v>0.411</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.035166839490717</v>
+        <v>-0.035</v>
       </c>
       <c r="H97" t="n">
-        <v>0.0405242829716697</v>
+        <v>0.041</v>
       </c>
       <c r="I97" t="n">
-        <v>0.0562555825048405</v>
+        <v>0.056</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0332178412204662</v>
+        <v>0.033</v>
       </c>
       <c r="K97" t="n">
-        <v>0.325537366691454</v>
+        <v>0.326</v>
       </c>
       <c r="L97" t="n">
-        <v>0.20435729244608</v>
+        <v>0.204</v>
       </c>
       <c r="M97" t="n">
-        <v>-0.0988093717343723</v>
+        <v>-0.099</v>
       </c>
       <c r="N97" t="n">
-        <v>-0.0734776383443758</v>
+        <v>-0.073</v>
       </c>
       <c r="O97" t="n">
-        <v>0.163137735543447</v>
+        <v>0.163</v>
       </c>
       <c r="P97" t="n">
-        <v>-1.40731280891633</v>
+        <v>-1.407</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.222816756492619</v>
+        <v>0.223</v>
       </c>
       <c r="R97" t="n">
-        <v>-0.472037413346285</v>
+        <v>-0.472</v>
       </c>
       <c r="S97" t="n">
-        <v>2.3075134743063</v>
+        <v>2.308</v>
       </c>
       <c r="T97" t="n">
-        <v>-3.84603212677888</v>
+        <v>-3.846</v>
       </c>
       <c r="U97" t="n">
-        <v>0.6310792012807</v>
+        <v>0.631</v>
       </c>
       <c r="V97" t="n">
-        <v>0.262108640539456</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="98">
@@ -6213,64 +6213,64 @@
         <v>35</v>
       </c>
       <c r="C98" t="n">
-        <v>0.00441491143742772</v>
+        <v>0.004</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0101218895802123</v>
+        <v>0.01</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.00412454462016826</v>
+        <v>-0.004</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.0266468968977861</v>
+        <v>-0.027</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.0620850885625723</v>
+        <v>-0.062</v>
       </c>
       <c r="H98" t="n">
-        <v>0.0338556405069214</v>
+        <v>0.034</v>
       </c>
       <c r="I98" t="n">
-        <v>0.0398003462763823</v>
+        <v>0.04</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0193903483896019</v>
+        <v>0.019</v>
       </c>
       <c r="K98" t="n">
-        <v>0.663238989360002</v>
+        <v>0.663</v>
       </c>
       <c r="L98" t="n">
-        <v>0.288368292400422</v>
+        <v>0.288</v>
       </c>
       <c r="M98" t="n">
-        <v>-0.011435981336594</v>
+        <v>-0.011</v>
       </c>
       <c r="N98" t="n">
-        <v>-0.147132780021508</v>
+        <v>-0.147</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.0024706431388983</v>
+        <v>-0.002</v>
       </c>
       <c r="P98" t="n">
-        <v>0.617679598016933</v>
+        <v>0.618</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.662984881367204</v>
+        <v>0.663</v>
       </c>
       <c r="R98" t="n">
-        <v>-0.95915933628051</v>
+        <v>-0.959</v>
       </c>
       <c r="S98" t="n">
-        <v>-0.21425307425863</v>
+        <v>-0.214</v>
       </c>
       <c r="T98" t="n">
-        <v>-7.33787897263384</v>
+        <v>-7.338</v>
       </c>
       <c r="U98" t="n">
-        <v>0.618857881419038</v>
+        <v>0.619</v>
       </c>
       <c r="V98" t="n">
-        <v>0.264545756757096</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="99">
@@ -6281,64 +6281,64 @@
         <v>36</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.00546984213881578</v>
+        <v>-0.005</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0291029233504648</v>
+        <v>0.029</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.0132116319792597</v>
+        <v>-0.013</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0752712796130494</v>
+        <v>0.075</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.127969842138816</v>
+        <v>-0.128</v>
       </c>
       <c r="H99" t="n">
-        <v>0.0627529158483107</v>
+        <v>0.063</v>
       </c>
       <c r="I99" t="n">
-        <v>0.0723851542720455</v>
+        <v>0.072</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0425792388292133</v>
+        <v>0.043</v>
       </c>
       <c r="K99" t="n">
-        <v>0.906913287556902</v>
+        <v>0.907</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.00850002959980899</v>
+        <v>-0.009</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0197686250395162</v>
+        <v>0.02</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0870589332955866</v>
+        <v>0.087</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.210969764477721</v>
+        <v>-0.211</v>
       </c>
       <c r="P99" t="n">
-        <v>-0.579559819820058</v>
+        <v>-0.58</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.09758973935871</v>
+        <v>2.098</v>
       </c>
       <c r="R99" t="n">
-        <v>-1.80375703937823</v>
+        <v>-1.804</v>
       </c>
       <c r="S99" t="n">
-        <v>0.62685879151968</v>
+        <v>0.627</v>
       </c>
       <c r="T99" t="n">
-        <v>-12.849068033237</v>
+        <v>-12.849</v>
       </c>
       <c r="U99" t="n">
-        <v>0.450455346806291</v>
+        <v>0.45</v>
       </c>
       <c r="V99" t="n">
-        <v>0.334226664174125</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="100">
@@ -6349,64 +6349,64 @@
         <v>37</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0026522189467132</v>
+        <v>0.003</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0218713284509192</v>
+        <v>0.022</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.0116527591167065</v>
+        <v>-0.012</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.0546942318418538</v>
+        <v>-0.055</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.20818111438662</v>
+        <v>-0.208</v>
       </c>
       <c r="H100" t="n">
-        <v>0.0490154177212904</v>
+        <v>0.049</v>
       </c>
       <c r="I100" t="n">
-        <v>0.0792728410797662</v>
+        <v>0.079</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0394579048121565</v>
+        <v>0.039</v>
       </c>
       <c r="K100" t="n">
-        <v>0.522674790764818</v>
+        <v>0.523</v>
       </c>
       <c r="L100" t="n">
-        <v>0.582595177602576</v>
+        <v>0.583</v>
       </c>
       <c r="M100" t="n">
-        <v>0.304573813097563</v>
+        <v>0.305</v>
       </c>
       <c r="N100" t="n">
-        <v>0.101175089024616</v>
+        <v>0.101</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0262770240006414</v>
+        <v>0.026</v>
       </c>
       <c r="P100" t="n">
-        <v>0.284402463368852</v>
+        <v>0.284</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.20524107291954</v>
+        <v>1.205</v>
       </c>
       <c r="R100" t="n">
-        <v>-1.25428906642362</v>
+        <v>-1.254</v>
       </c>
       <c r="S100" t="n">
-        <v>-0.510447729202653</v>
+        <v>-0.51</v>
       </c>
       <c r="T100" t="n">
-        <v>-15.3065314161664</v>
+        <v>-15.307</v>
       </c>
       <c r="U100" t="n">
-        <v>0.487788627876897</v>
+        <v>0.488</v>
       </c>
       <c r="V100" t="n">
-        <v>0.288287339085502</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="101">
@@ -6417,64 +6417,64 @@
         <v>38</v>
       </c>
       <c r="C101" t="n">
-        <v>0.00593400648323437</v>
+        <v>0.006</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.00591008142394764</v>
+        <v>-0.006</v>
       </c>
       <c r="E101" t="n">
-        <v>0.00978415501118791</v>
+        <v>0.01</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0550662731999914</v>
+        <v>0.055</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.247065993516766</v>
+        <v>-0.247</v>
       </c>
       <c r="H101" t="n">
-        <v>0.0482448900877555</v>
+        <v>0.048</v>
       </c>
       <c r="I101" t="n">
-        <v>0.0788111851525152</v>
+        <v>0.079</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0398809429324918</v>
+        <v>0.04</v>
       </c>
       <c r="K101" t="n">
-        <v>0.558138412228178</v>
+        <v>0.558</v>
       </c>
       <c r="L101" t="n">
-        <v>0.3046418354667</v>
+        <v>0.305</v>
       </c>
       <c r="M101" t="n">
-        <v>-0.272471721088306</v>
+        <v>-0.272</v>
       </c>
       <c r="N101" t="n">
-        <v>-0.258075221451865</v>
+        <v>-0.258</v>
       </c>
       <c r="O101" t="n">
-        <v>-0.0935319596246819</v>
+        <v>-0.094</v>
       </c>
       <c r="P101" t="n">
-        <v>0.675440879180592</v>
+        <v>0.675</v>
       </c>
       <c r="Q101" t="n">
-        <v>-0.32957677271384</v>
+        <v>-0.33</v>
       </c>
       <c r="R101" t="n">
-        <v>1.19563007398509</v>
+        <v>1.196</v>
       </c>
       <c r="S101" t="n">
-        <v>0.658818327604826</v>
+        <v>0.659</v>
       </c>
       <c r="T101" t="n">
-        <v>-20.7127490230789</v>
+        <v>-20.713</v>
       </c>
       <c r="U101" t="n">
-        <v>0.570124292406917</v>
+        <v>0.57</v>
       </c>
       <c r="V101" t="n">
-        <v>0.296062410140537</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="102">
@@ -6485,64 +6485,64 @@
         <v>39</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0160421312612932</v>
+        <v>0.016</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.0333289428593604</v>
+        <v>-0.033</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0177982272064754</v>
+        <v>0.018</v>
       </c>
       <c r="F102" t="n">
-        <v>0.096352050747605</v>
+        <v>0.096</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.426957868738707</v>
+        <v>-0.427</v>
       </c>
       <c r="H102" t="n">
-        <v>0.0527341691557342</v>
+        <v>0.053</v>
       </c>
       <c r="I102" t="n">
-        <v>0.0788469563565827</v>
+        <v>0.079</v>
       </c>
       <c r="J102" t="n">
-        <v>0.044791750072009</v>
+        <v>0.045</v>
       </c>
       <c r="K102" t="n">
-        <v>0.929678835144506</v>
+        <v>0.93</v>
       </c>
       <c r="L102" t="n">
-        <v>0.334631245904981</v>
+        <v>0.335</v>
       </c>
       <c r="M102" t="n">
-        <v>0.12633035281311</v>
+        <v>0.126</v>
       </c>
       <c r="N102" t="n">
-        <v>-0.0244779030027034</v>
+        <v>-0.024</v>
       </c>
       <c r="O102" t="n">
-        <v>-0.0497106272543161</v>
+        <v>-0.05</v>
       </c>
       <c r="P102" t="n">
-        <v>1.30830631033647</v>
+        <v>1.308</v>
       </c>
       <c r="Q102" t="n">
-        <v>-1.47900013458496</v>
+        <v>-1.479</v>
       </c>
       <c r="R102" t="n">
-        <v>1.42528152758537</v>
+        <v>1.425</v>
       </c>
       <c r="S102" t="n">
-        <v>0.538554851228572</v>
+        <v>0.539</v>
       </c>
       <c r="T102" t="n">
-        <v>-29.79358282828</v>
+        <v>-29.794</v>
       </c>
       <c r="U102" t="n">
-        <v>0.640309993257241</v>
+        <v>0.64</v>
       </c>
       <c r="V102" t="n">
-        <v>0.265337145782678</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="103">
@@ -6553,64 +6553,64 @@
         <v>40</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.0159389985788416</v>
+        <v>-0.016</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.00205613207987055</v>
+        <v>-0.002</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.00747073457597777</v>
+        <v>-0.007</v>
       </c>
       <c r="F103" t="n">
-        <v>0.400554503368127</v>
+        <v>0.401</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.485438998578842</v>
+        <v>-0.485</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0753994472120588</v>
+        <v>0.075</v>
       </c>
       <c r="I103" t="n">
-        <v>0.0915885073690803</v>
+        <v>0.092</v>
       </c>
       <c r="J103" t="n">
-        <v>0.05942536599863</v>
+        <v>0.059</v>
       </c>
       <c r="K103" t="n">
-        <v>1.09669039711306</v>
+        <v>1.097</v>
       </c>
       <c r="L103" t="n">
-        <v>0.617767724449161</v>
+        <v>0.618</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.0594295616397608</v>
+        <v>-0.059</v>
       </c>
       <c r="N103" t="n">
-        <v>-0.241312379691125</v>
+        <v>-0.241</v>
       </c>
       <c r="O103" t="n">
-        <v>0.16408756939092</v>
+        <v>0.164</v>
       </c>
       <c r="P103" t="n">
-        <v>-1.20107775338018</v>
+        <v>-1.201</v>
       </c>
       <c r="Q103" t="n">
-        <v>-0.0716770785301862</v>
+        <v>-0.072</v>
       </c>
       <c r="R103" t="n">
-        <v>-0.416250953458265</v>
+        <v>-0.416</v>
       </c>
       <c r="S103" t="n">
-        <v>2.07354313312307</v>
+        <v>2.074</v>
       </c>
       <c r="T103" t="n">
-        <v>-20.5500013366454</v>
+        <v>-20.55</v>
       </c>
       <c r="U103" t="n">
-        <v>0.563385423287661</v>
+        <v>0.563</v>
       </c>
       <c r="V103" t="n">
-        <v>0.263479524556326</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="104">
@@ -6621,64 +6621,64 @@
         <v>41</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.0255072441429903</v>
+        <v>-0.026</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0329028663920754</v>
+        <v>0.033</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.00750756813084769</v>
+        <v>-0.008</v>
       </c>
       <c r="F104" t="n">
-        <v>0.258265190460464</v>
+        <v>0.258</v>
       </c>
       <c r="G104" t="n">
-        <v>-0.65200724414299</v>
+        <v>-0.652</v>
       </c>
       <c r="H104" t="n">
-        <v>0.0569740967467798</v>
+        <v>0.057</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0768824146824277</v>
+        <v>0.077</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0416142135527451</v>
+        <v>0.042</v>
       </c>
       <c r="K104" t="n">
-        <v>0.754160788762638</v>
+        <v>0.754</v>
       </c>
       <c r="L104" t="n">
-        <v>0.825974013272322</v>
+        <v>0.826</v>
       </c>
       <c r="M104" t="n">
-        <v>0.139407461987849</v>
+        <v>0.139</v>
       </c>
       <c r="N104" t="n">
-        <v>0.101148354224277</v>
+        <v>0.101</v>
       </c>
       <c r="O104" t="n">
-        <v>-0.187964583352728</v>
+        <v>-0.188</v>
       </c>
       <c r="P104" t="n">
-        <v>-1.47574888429025</v>
+        <v>-1.476</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.10445602120896</v>
+        <v>1.104</v>
       </c>
       <c r="R104" t="n">
-        <v>-0.582272876759037</v>
+        <v>-0.582</v>
       </c>
       <c r="S104" t="n">
-        <v>2.20677320382865</v>
+        <v>2.207</v>
       </c>
       <c r="T104" t="n">
-        <v>-20.2511817094039</v>
+        <v>-20.251</v>
       </c>
       <c r="U104" t="n">
-        <v>0.542919791215464</v>
+        <v>0.543</v>
       </c>
       <c r="V104" t="n">
-        <v>0.32536436606898</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="105">
@@ -6689,64 +6689,64 @@
         <v>42</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0378092414986754</v>
+        <v>0.038</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.0318638416923118</v>
+        <v>-0.032</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0146485319302127</v>
+        <v>0.015</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.0540719598732743</v>
+        <v>-0.054</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.782357425167991</v>
+        <v>-0.782</v>
       </c>
       <c r="H105" t="n">
-        <v>0.0621941144240799</v>
+        <v>0.062</v>
       </c>
       <c r="I105" t="n">
-        <v>0.0761482679882827</v>
+        <v>0.076</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0476386294859342</v>
+        <v>0.048</v>
       </c>
       <c r="K105" t="n">
-        <v>0.861635036464828</v>
+        <v>0.862</v>
       </c>
       <c r="L105" t="n">
-        <v>0.765331645155985</v>
+        <v>0.765</v>
       </c>
       <c r="M105" t="n">
-        <v>0.103327968310536</v>
+        <v>0.103</v>
       </c>
       <c r="N105" t="n">
-        <v>0.219385720959032</v>
+        <v>0.219</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0133045413063184</v>
+        <v>0.013</v>
       </c>
       <c r="P105" t="n">
-        <v>3.01800715487908</v>
+        <v>3.018</v>
       </c>
       <c r="Q105" t="n">
-        <v>-1.73086925502875</v>
+        <v>-1.731</v>
       </c>
       <c r="R105" t="n">
-        <v>1.29918457936798</v>
+        <v>1.299</v>
       </c>
       <c r="S105" t="n">
-        <v>-0.286535541489966</v>
+        <v>-0.287</v>
       </c>
       <c r="T105" t="n">
-        <v>-29.8853079122528</v>
+        <v>-29.885</v>
       </c>
       <c r="U105" t="n">
-        <v>0.616750321265332</v>
+        <v>0.617</v>
       </c>
       <c r="V105" t="n">
-        <v>0.289451229627501</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="106">
@@ -6757,64 +6757,64 @@
         <v>43</v>
       </c>
       <c r="C106" t="n">
-        <v>0.00281592264610513</v>
+        <v>0.003</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.00570326378369264</v>
+        <v>-0.006</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.00369840920352209</v>
+        <v>-0.004</v>
       </c>
       <c r="F106" t="n">
-        <v>0.169702897661438</v>
+        <v>0.17</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.549684077353895</v>
+        <v>-0.55</v>
       </c>
       <c r="H106" t="n">
-        <v>0.0616841639953399</v>
+        <v>0.062</v>
       </c>
       <c r="I106" t="n">
-        <v>0.0607552744276678</v>
+        <v>0.061</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0385113955798825</v>
+        <v>0.039</v>
       </c>
       <c r="K106" t="n">
-        <v>0.838464879514799</v>
+        <v>0.838</v>
       </c>
       <c r="L106" t="n">
-        <v>0.396910130083745</v>
+        <v>0.397</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0576226710552546</v>
+        <v>0.058</v>
       </c>
       <c r="N106" t="n">
-        <v>0.125867936756448</v>
+        <v>0.126</v>
       </c>
       <c r="O106" t="n">
-        <v>-0.113228919621245</v>
+        <v>-0.113</v>
       </c>
       <c r="P106" t="n">
-        <v>0.191446709091041</v>
+        <v>0.191</v>
       </c>
       <c r="Q106" t="n">
-        <v>-0.355462610314636</v>
+        <v>-0.355</v>
       </c>
       <c r="R106" t="n">
-        <v>-0.413267199546972</v>
+        <v>-0.413</v>
       </c>
       <c r="S106" t="n">
-        <v>0.9064595063474</v>
+        <v>0.906</v>
       </c>
       <c r="T106" t="n">
-        <v>-30.2297095290623</v>
+        <v>-30.23</v>
       </c>
       <c r="U106" t="n">
-        <v>0.517112638064559</v>
+        <v>0.517</v>
       </c>
       <c r="V106" t="n">
-        <v>0.29939599587424</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="107">
@@ -6825,64 +6825,64 @@
         <v>44</v>
       </c>
       <c r="C107" t="n">
-        <v>0.00568776145055878</v>
+        <v>0.006</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.0162502901007831</v>
+        <v>-0.016</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0138242805534711</v>
+        <v>0.014</v>
       </c>
       <c r="F107" t="n">
-        <v>0.152071736326964</v>
+        <v>0.152</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.345312238549441</v>
+        <v>-0.345</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0524192982411545</v>
+        <v>0.052</v>
       </c>
       <c r="I107" t="n">
-        <v>0.098634298748638</v>
+        <v>0.099</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0597222449222555</v>
+        <v>0.06</v>
       </c>
       <c r="K107" t="n">
-        <v>0.285220436846756</v>
+        <v>0.285</v>
       </c>
       <c r="L107" t="n">
-        <v>0.65315217323825</v>
+        <v>0.653</v>
       </c>
       <c r="M107" t="n">
-        <v>0.142674718549407</v>
+        <v>0.143</v>
       </c>
       <c r="N107" t="n">
-        <v>0.141132762875277</v>
+        <v>0.141</v>
       </c>
       <c r="O107" t="n">
-        <v>0.211881628842213</v>
+        <v>0.212</v>
       </c>
       <c r="P107" t="n">
-        <v>0.58032563985054</v>
+        <v>0.58</v>
       </c>
       <c r="Q107" t="n">
-        <v>-1.12400129587948</v>
+        <v>-1.124</v>
       </c>
       <c r="R107" t="n">
-        <v>1.35420160144125</v>
+        <v>1.354</v>
       </c>
       <c r="S107" t="n">
-        <v>1.23166324786069</v>
+        <v>1.232</v>
       </c>
       <c r="T107" t="n">
-        <v>-21.1875367366906</v>
+        <v>-21.188</v>
       </c>
       <c r="U107" t="n">
-        <v>0.521786911574518</v>
+        <v>0.522</v>
       </c>
       <c r="V107" t="n">
-        <v>0.288395971393548</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="108">
@@ -6893,64 +6893,64 @@
         <v>45</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0135848618636831</v>
+        <v>0.014</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.00456266089396266</v>
+        <v>-0.005</v>
       </c>
       <c r="E108" t="n">
-        <v>0.00285962502881211</v>
+        <v>0.003</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0116749897000364</v>
+        <v>0.012</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.40774847146965</v>
+        <v>-0.408</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0555362833121661</v>
+        <v>0.056</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0933770887506213</v>
+        <v>0.093</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0583856049480538</v>
+        <v>0.058</v>
       </c>
       <c r="K108" t="n">
-        <v>0.49840442481509</v>
+        <v>0.498</v>
       </c>
       <c r="L108" t="n">
-        <v>0.15610294079852</v>
+        <v>0.156</v>
       </c>
       <c r="M108" t="n">
-        <v>0.110583609207034</v>
+        <v>0.111</v>
       </c>
       <c r="N108" t="n">
-        <v>0.131097288923381</v>
+        <v>0.131</v>
       </c>
       <c r="O108" t="n">
-        <v>0.170347317855091</v>
+        <v>0.17</v>
       </c>
       <c r="P108" t="n">
-        <v>1.83156867377414</v>
+        <v>1.832</v>
       </c>
       <c r="Q108" t="n">
-        <v>-0.248288982965889</v>
+        <v>-0.248</v>
       </c>
       <c r="R108" t="n">
-        <v>0.191607232197421</v>
+        <v>0.192</v>
       </c>
       <c r="S108" t="n">
-        <v>0.108278379465338</v>
+        <v>0.108</v>
       </c>
       <c r="T108" t="n">
-        <v>-46.9308363127232</v>
+        <v>-46.931</v>
       </c>
       <c r="U108" t="n">
-        <v>0.614293766259397</v>
+        <v>0.614</v>
       </c>
       <c r="V108" t="n">
-        <v>0.245699280083003</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="109">
@@ -6961,64 +6961,64 @@
         <v>46</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.000270766074663431</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.0015121725833303</v>
+        <v>-0.002</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.00039354719150053</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.158670210030599</v>
+        <v>0.159</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.175604099407997</v>
+        <v>-0.176</v>
       </c>
       <c r="H109" t="n">
-        <v>0.0310076331816535</v>
+        <v>0.031</v>
       </c>
       <c r="I109" t="n">
-        <v>0.043217622623028</v>
+        <v>0.043</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0233060217482065</v>
+        <v>0.023</v>
       </c>
       <c r="K109" t="n">
-        <v>0.409528429014956</v>
+        <v>0.41</v>
       </c>
       <c r="L109" t="n">
-        <v>0.831195785624833</v>
+        <v>0.831</v>
       </c>
       <c r="M109" t="n">
-        <v>-0.148666482546131</v>
+        <v>-0.149</v>
       </c>
       <c r="N109" t="n">
-        <v>-0.138973644084503</v>
+        <v>-0.139</v>
       </c>
       <c r="O109" t="n">
-        <v>-0.0775873812864694</v>
+        <v>-0.078</v>
       </c>
       <c r="P109" t="n">
-        <v>-0.0561937186554576</v>
+        <v>-0.056</v>
       </c>
       <c r="Q109" t="n">
-        <v>-0.107939685215605</v>
+        <v>-0.108</v>
       </c>
       <c r="R109" t="n">
-        <v>-0.0378044881232004</v>
+        <v>-0.038</v>
       </c>
       <c r="S109" t="n">
-        <v>2.11881765975254</v>
+        <v>2.119</v>
       </c>
       <c r="T109" t="n">
-        <v>-12.5710816513095</v>
+        <v>-12.571</v>
       </c>
       <c r="U109" t="n">
-        <v>0.693879219614025</v>
+        <v>0.694</v>
       </c>
       <c r="V109" t="n">
-        <v>0.266887699811987</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="110">
@@ -7029,64 +7029,64 @@
         <v>47</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0173378499268761</v>
+        <v>0.017</v>
       </c>
       <c r="D110" t="n">
-        <v>0.000673818685582758</v>
+        <v>0.001</v>
       </c>
       <c r="E110" t="n">
-        <v>0.00562719488806523</v>
+        <v>0.006</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.213127732717654</v>
+        <v>-0.213</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.166828816739791</v>
+        <v>-0.167</v>
       </c>
       <c r="H110" t="n">
-        <v>0.0484768408805029</v>
+        <v>0.048</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0615237326832655</v>
+        <v>0.062</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0336767508305237</v>
+        <v>0.034</v>
       </c>
       <c r="K110" t="n">
-        <v>0.852135087509601</v>
+        <v>0.852</v>
       </c>
       <c r="L110" t="n">
-        <v>0.878504708160255</v>
+        <v>0.879</v>
       </c>
       <c r="M110" t="n">
-        <v>0.197263903646822</v>
+        <v>0.197</v>
       </c>
       <c r="N110" t="n">
-        <v>0.343381708128002</v>
+        <v>0.343</v>
       </c>
       <c r="O110" t="n">
-        <v>0.130060358307372</v>
+        <v>0.13</v>
       </c>
       <c r="P110" t="n">
-        <v>2.19452225882767</v>
+        <v>2.195</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.029538060641601</v>
+        <v>0.03</v>
       </c>
       <c r="R110" t="n">
-        <v>0.361648091416294</v>
+        <v>0.362</v>
       </c>
       <c r="S110" t="n">
-        <v>-1.57008434899682</v>
+        <v>-1.57</v>
       </c>
       <c r="T110" t="n">
-        <v>-6.92543854067202</v>
+        <v>-6.925</v>
       </c>
       <c r="U110" t="n">
-        <v>0.591744984343888</v>
+        <v>0.592</v>
       </c>
       <c r="V110" t="n">
-        <v>0.319983117396837</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="111">
@@ -7097,64 +7097,64 @@
         <v>48</v>
       </c>
       <c r="C111" t="n">
-        <v>0.00431816627853291</v>
+        <v>0.004</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0115100733392352</v>
+        <v>0.012</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.0103692870112886</v>
+        <v>-0.01</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0209351412492952</v>
+        <v>0.021</v>
       </c>
       <c r="G111" t="n">
-        <v>0.00248483294519958</v>
+        <v>0.002</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0295764481370035</v>
+        <v>0.03</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0247084283862548</v>
+        <v>0.025</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0190699368981993</v>
+        <v>0.019</v>
       </c>
       <c r="K111" t="n">
-        <v>0.505583925185674</v>
+        <v>0.506</v>
       </c>
       <c r="L111" t="n">
-        <v>0.00965716563153114</v>
+        <v>0.01</v>
       </c>
       <c r="M111" t="n">
-        <v>-0.0485035713467904</v>
+        <v>-0.049</v>
       </c>
       <c r="N111" t="n">
-        <v>-0.0627271185841659</v>
+        <v>-0.063</v>
       </c>
       <c r="O111" t="n">
-        <v>-0.0795323806822256</v>
+        <v>-0.08</v>
       </c>
       <c r="P111" t="n">
-        <v>0.634345649824686</v>
+        <v>0.634</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.08443961745337</v>
+        <v>1.084</v>
       </c>
       <c r="R111" t="n">
-        <v>-2.14165105405973</v>
+        <v>-2.142</v>
       </c>
       <c r="S111" t="n">
-        <v>0.215329424264519</v>
+        <v>0.215</v>
       </c>
       <c r="T111" t="n">
-        <v>0.363461844465928</v>
+        <v>0.363</v>
       </c>
       <c r="U111" t="n">
-        <v>0.658783868189151</v>
+        <v>0.659</v>
       </c>
       <c r="V111" t="n">
-        <v>0.303195584396179</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="112">
@@ -7165,64 +7165,64 @@
         <v>49</v>
       </c>
       <c r="C112" t="n">
-        <v>0.00586397244250026</v>
+        <v>0.006</v>
       </c>
       <c r="D112" t="n">
-        <v>0.00503129212801297</v>
+        <v>0.005</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.000312904798512933</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.00231929397931621</v>
+        <v>0.002</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.0839693608908331</v>
+        <v>-0.084</v>
       </c>
       <c r="H112" t="n">
-        <v>0.0184930714386642</v>
+        <v>0.018</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0196038003352259</v>
+        <v>0.02</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0115943806233741</v>
+        <v>0.012</v>
       </c>
       <c r="K112" t="n">
-        <v>0.346205161523718</v>
+        <v>0.346</v>
       </c>
       <c r="L112" t="n">
-        <v>0.682907087838854</v>
+        <v>0.683</v>
       </c>
       <c r="M112" t="n">
-        <v>-0.0499368131269279</v>
+        <v>-0.05</v>
       </c>
       <c r="N112" t="n">
-        <v>-0.0723255671444558</v>
+        <v>-0.072</v>
       </c>
       <c r="O112" t="n">
-        <v>0.00861042912783941</v>
+        <v>0.009</v>
       </c>
       <c r="P112" t="n">
-        <v>1.11787784420613</v>
+        <v>1.118</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.537147234284192</v>
+        <v>0.537</v>
       </c>
       <c r="R112" t="n">
-        <v>-0.042374133909118</v>
+        <v>-0.042</v>
       </c>
       <c r="S112" t="n">
-        <v>0.0266303217019487</v>
+        <v>0.027</v>
       </c>
       <c r="T112" t="n">
-        <v>-8.05692263684353</v>
+        <v>-8.057</v>
       </c>
       <c r="U112" t="n">
-        <v>0.710882094216939</v>
+        <v>0.711</v>
       </c>
       <c r="V112" t="n">
-        <v>0.296016993630753</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="113">
@@ -7233,64 +7233,64 @@
         <v>50</v>
       </c>
       <c r="C113" t="n">
-        <v>0.00276887240015282</v>
+        <v>0.003</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.000742894508771011</v>
+        <v>-0.001</v>
       </c>
       <c r="E113" t="n">
-        <v>0.00505618241223589</v>
+        <v>0.005</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.000546164644432471</v>
+        <v>-0.001</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.0572311275998472</v>
+        <v>-0.057</v>
       </c>
       <c r="H113" t="n">
-        <v>0.0192641594326549</v>
+        <v>0.019</v>
       </c>
       <c r="I113" t="n">
-        <v>0.0157523348497818</v>
+        <v>0.016</v>
       </c>
       <c r="J113" t="n">
-        <v>0.00760255085254518</v>
+        <v>0.008</v>
       </c>
       <c r="K113" t="n">
-        <v>0.437191996228453</v>
+        <v>0.437</v>
       </c>
       <c r="L113" t="n">
-        <v>0.711093964156618</v>
+        <v>0.711</v>
       </c>
       <c r="M113" t="n">
-        <v>-0.440492722819713</v>
+        <v>-0.44</v>
       </c>
       <c r="N113" t="n">
-        <v>-0.379787508644137</v>
+        <v>-0.38</v>
       </c>
       <c r="O113" t="n">
-        <v>-0.184516890427695</v>
+        <v>-0.185</v>
       </c>
       <c r="P113" t="n">
-        <v>0.261146899294803</v>
+        <v>0.261</v>
       </c>
       <c r="Q113" t="n">
-        <v>-0.0483663145880454</v>
+        <v>-0.048</v>
       </c>
       <c r="R113" t="n">
-        <v>0.837397686140854</v>
+        <v>0.837</v>
       </c>
       <c r="S113" t="n">
-        <v>-0.00369379736363884</v>
+        <v>-0.004</v>
       </c>
       <c r="T113" t="n">
-        <v>-2.43801770407537</v>
+        <v>-2.438</v>
       </c>
       <c r="U113" t="n">
-        <v>0.708805955408772</v>
+        <v>0.709</v>
       </c>
       <c r="V113" t="n">
-        <v>0.278973818345719</v>
+        <v>0.279</v>
       </c>
     </row>
   </sheetData>
